--- a/Bible - NT.xlsx
+++ b/Bible - NT.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>English</t>
   </si>
@@ -55,6 +55,18 @@
   </si>
   <si>
     <t>Verse</t>
+  </si>
+  <si>
+    <t>Ci Kerode olwoŋo luryeko i muŋ, guniaŋe kun gititte kare ma lakalatwe onen iye</t>
+  </si>
+  <si>
+    <t>Ka doŋ ocwalogi me cito i Jerucalem kun waco botgi ni, “Wuciti wupeny lok kom latin man maber kikore, ce ka wunoŋe ci wudwokka lok, wek an bene acit awore.”</t>
+  </si>
+  <si>
+    <t>I kare ma doŋ guwinyo lok pa kabaka, gucito ki yogi ci guneno lakalatwe ma yam koŋ guneno yo tuŋ wokceŋ ca otelo nyimgi, obino ocuŋ ki malo wa i kabedo ka ma onoŋo latin-nu tye iye</t>
+  </si>
+  <si>
+    <t>Ka guneno lakalatwe meno, cwinygi obedo yom adada.</t>
   </si>
 </sst>
 </file>
@@ -406,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -481,6 +493,35 @@
         <v>2</v>
       </c>
     </row>
+    <row r="7" spans="1:3" ht="30">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="45">
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="45">
+      <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Bible - NT.xlsx
+++ b/Bible - NT.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>English</t>
   </si>
@@ -24,56 +24,461 @@
     <t>Adhola</t>
   </si>
   <si>
-    <t>Magi aye gubedo kwaro Yecu Kricito, Lakwar Daudi, lakwar Abraim</t>
-  </si>
-  <si>
     <t>A record of the genealogy of Jesus Christ the son of David, the son of Abraham</t>
   </si>
   <si>
-    <t>After Jesus was born in Bethlehem in Judea, during the time of King Herod, Magi from the east came to Jerusalemand asked, “Where is the one who has been born king of the Jews? We saw his star in the east and have come to worship him.”</t>
-  </si>
-  <si>
-    <t>Ka doŋ ginywalo Yecu i Beterekem ma i Judaya i kare me loc pa kabaka Kerode, nen, luryeko mogo ma gua yo tuŋ wokceŋ gubino i Jerucalem, kun gipenyo ni,“En latin ma ginywalo me bedo kabaka pa Lujudaya-ni tye kwene? Pien onoŋo waneno lakalatwene yo tuŋ wokceŋ, ci man wabino ka wore.”</t>
-  </si>
-  <si>
-    <t>I kare ma kabaka Kerode owinyo lok man, cwinye opoto matek, kadi wa jo Jerucalem bene ducu cwinygi opoto matek</t>
-  </si>
-  <si>
-    <t>pi meno omiyo kabaka Kerode ocoko ajwagi madito ki lupwony-cik me rokgi ducu, ci openyogi ni, “Kricito mono gibinywalo kwene?”</t>
-  </si>
-  <si>
     <t>When King Herod heard this he was disturbed, and all Jerusalem with him</t>
   </si>
   <si>
     <t>When he had called together all the people's chief priests and teachers of the law, he asked them where the Christ was to be born</t>
   </si>
   <si>
-    <t>Jo-nu gudokke iye ni, “I Beterekem ma i Judaya, pien lanebi yam ocoyo ni,</t>
-  </si>
-  <si>
-    <t>They replied, “In Bethlehem in Judea, for this is what the prophet has written:</t>
-  </si>
-  <si>
     <t>Verse</t>
   </si>
   <si>
-    <t>Ci Kerode olwoŋo luryeko i muŋ, guniaŋe kun gititte kare ma lakalatwe onen iye</t>
-  </si>
-  <si>
-    <t>Ka doŋ ocwalogi me cito i Jerucalem kun waco botgi ni, “Wuciti wupeny lok kom latin man maber kikore, ce ka wunoŋe ci wudwokka lok, wek an bene acit awore.”</t>
-  </si>
-  <si>
-    <t>I kare ma doŋ guwinyo lok pa kabaka, gucito ki yogi ci guneno lakalatwe ma yam koŋ guneno yo tuŋ wokceŋ ca otelo nyimgi, obino ocuŋ ki malo wa i kabedo ka ma onoŋo latin-nu tye iye</t>
-  </si>
-  <si>
-    <t>Ka guneno lakalatwe meno, cwinygi obedo yom adada.</t>
+    <t>When they had heard the king, they departed; and, lo, the star, which they saw in the east, went before them, till it came and stood over where the young child was.</t>
+  </si>
+  <si>
+    <t>When they saw the star, they rejoiced with exceeding great joy.</t>
+  </si>
+  <si>
+    <t>Gikenyo Herode olwoŋo wendo ma jowok yu Wokchieŋ no i romo ma nyaliŋliŋ, aka oŋeyo kwoŋ jo ndir won ma michala no omenyer'iye ri jo.</t>
+  </si>
+  <si>
+    <t>Gikenyo ooro jo Bethlehem gi wach me: “Kidhi win wirangi kama di nyathi no maber aka ka winwaŋo go wimiyan ŋeyo, ŋey abende abin alam go.”</t>
+  </si>
+  <si>
+    <r>
+      <t>Then Herod summoned the wise men secretly and ascertained from them what time the star had appeared.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> 8 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>And he sent them to Bethlehem, saying, “Go and search diligently for the child, and when you have found him, bring me word, that I too may come and worship him.”</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Gi wach me joeye kenyo, aka munyo oido jowotho i royo, joneno michala ma ndir cha joneno yu Wokchieŋ, motelo jo chuka otundo to chungo kama nyathi no oido ni iye.</t>
+  </si>
+  <si>
+    <t>Josangala swa, kendo jowinjo maber moasere munyo joneno michala no!</t>
+  </si>
+  <si>
+    <t>In Bethlehem, i piny pa Yuda,
+iŋati ikiasa thin i dyer jodhum ma Yuda;
+kole kwoŋin ama jatel bino wok'iye,
+ma bino bedo jakwath pa Joisrael.</t>
+  </si>
+  <si>
+    <t>Munyo otyek nywolo Yesu i tindi ma Bethlehem, i Yudeya i ndir ma Herode oido kere, joryeko mogo ma jofuonjere kwoŋ michalin jowok yu Wokchieŋ to jobino Yerusalem aka jopenjo ni, “Nikune nyathi monywol bedo kere pa Joyudaya?"</t>
+  </si>
+  <si>
+    <t>After Jesus was born in Bethlehem in Judea, during the time of King Herod, Magi from the east came to Jerusalemand asked, “Where is the one who has been born king of the Jews? ”</t>
+  </si>
+  <si>
+    <t>We saw his star in the east and have come to worship him.</t>
+  </si>
+  <si>
+    <t>Waneno michala pere munyo owok yu Wokchieŋ amomiyo onyo wabino lamo go.</t>
+  </si>
+  <si>
+    <r>
+      <t>Munyo Kere Herode owinjo gime, obwok, aka kir gi ji man jye i Yerusalem.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Raleway"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Go olwoŋo jotel pa jochwayi ri Were wi alitar jye kodi jofuonji ma Chik kanyachiel to penjo jo ni, “Ibino nywolo Kristo kune?”</t>
+  </si>
+  <si>
+    <t>Jodwoko ni, “I tindi ma Bethlehem, i Yudeya, me a gima jatuchi wach Were ondiko ” </t>
+  </si>
+  <si>
+    <t>They replied, “In Bethlehem in Judea, for this is what the prophet has written"</t>
+  </si>
+  <si>
+    <t>“ ‘And you, O Bethlehem, in the land of Judah, are by no means least among the rulers of Judah; for from you shall come a ruler who will shepherd my people Israel.’ ”</t>
+  </si>
+  <si>
+    <t>And being warned in a dream not to return to Herod, they departed to their own country by another way.</t>
+  </si>
+  <si>
+    <t>Were onyutho jo i lek nike jokiri jogiki kendo pa Herode, ri ameno jodok yu piny pajo gi royo man.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jodonjo i ot to joneno nyathi bongi Marya yokimere. </t>
+  </si>
+  <si>
+    <t>Joguro chongi gin piny jolamo go, to joyawo migowe pajo, to jochwayo mich: zawabu, buban, kodi mo maŋwe kur.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">And going into the house they saw the child with Mary his mother, and they fell down and worshiped him. </t>
+  </si>
+  <si>
+    <t>Then, opening their treasures, they offered him gifts, gold and frankincense and myrrh.  </t>
+  </si>
+  <si>
+    <t>Munyo jotyeko kadho, malaika pa Ruoth omenyere ri Yozefu i lek munyo wacho ni, “Ayi malo ikwanyi nyathi gi yokimere wiringi i piny Misir, aka wibedi koro nyuka anowachi ri win ndir ma dwoko. Herode lerango nyathi no munyo mito neko.”</t>
+  </si>
+  <si>
+    <t>Now when they had departed, behold, an angel of the Lord appeared to Joseph in a dream and said, “Rise, take the child and his mother, and flee to Egypt, and remain there until I tell you, for Herod is about to search for the child, to destroy him.”</t>
+  </si>
+  <si>
+    <t>Meno omiyo gima jatuchi wach Were owacho chon otundo i kare ni, “Alwoŋo wuodan wok Misir.”</t>
+  </si>
+  <si>
+    <t>Neko nyithindho maŋich</t>
+  </si>
+  <si>
+    <t>Ringo i piny Misir</t>
+  </si>
+  <si>
+    <t>This was to fulfill what the Lord had spoken by the prophet, “Out of Egypt I called my son.”</t>
+  </si>
+  <si>
+    <r>
+      <t>Amomiyo Yozefu oay malo okwanyo nyathi gi yokimere, to joay wor kidho yu Misir;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>kama go obed'iye chuka Herode otho. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>And he rose and took the child and his mother by night and departed to Egypt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> and remained there until the death of Herod. </t>
+    </r>
+  </si>
+  <si>
+    <t>Munyo Herode oneno ni joryeko ma jowok yu Wokchieŋ jothumo ri go ryeko, keme omako go to wodho or nike woneki woko nyithindho mayach jye ma joromo oro aryo gik chien, i Bethlehem kodi loka mothenere gine. </t>
+  </si>
+  <si>
+    <t>Then Herod, when he saw that he had been tricked by the wise men, became furious, and he sent and killed all the male children in Bethlehem and in all that region who were two years old or under.</t>
+  </si>
+  <si>
+    <t>according to the time that he had ascertained from the wise men. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> kwoŋ ndir ma go openj'iye joryeko cha kwoŋ menyirok pa michala.</t>
+  </si>
+  <si>
+    <t>Ameno gima Yeremiya jatuchi wach Were owacho otundo i kare</t>
+  </si>
+  <si>
+    <t>Rakel ywako nyithindho pere.</t>
+  </si>
+  <si>
+    <r>
+      <t>Then was fulfilled what was spoken by the prophet Jeremiah:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Raleway"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Derino winjere yu Rama, derino ma ywak malith gi ndur.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A voice was heard in Ramah, weeping and loud lamentation, </t>
+  </si>
+  <si>
+    <t>Rachel weeping for her children.</t>
+  </si>
+  <si>
+    <t>Kiyey wokwey chunye, rupiri ongoye modoŋ.</t>
+  </si>
+  <si>
+    <t>She refused to be comforted, because they are no more.</t>
+  </si>
+  <si>
+    <t>The Slaying of the Infants</t>
+  </si>
+  <si>
+    <t>Dwoko wok Misir</t>
+  </si>
+  <si>
+    <t>The flight to Egypt</t>
+  </si>
+  <si>
+    <t>Amomiyo Jozefu oay malo, okwanyo nyathi gi yokimere to jodok yu piny Israel.</t>
+  </si>
+  <si>
+    <r>
+      <t>But when Herod died, behold, an angel of the Lord appeared in a dream to Joseph in Egypt.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Raleway"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Munyo Herode otyeko tho, malaika pa Ruoth omenyere ri Yozefu i lek yu Misir.</t>
+  </si>
+  <si>
+    <r>
+      <t>And he rose and took the child and his mother and went to the land of Israel.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Raleway"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Then he said, “Rise, take the child and his mother and go to the land of Israel, for those who sought the child’s life are dead.”</t>
+  </si>
+  <si>
+    <t>Aka owacho ni, “Ayi malo ikwanyi nyathi gi yokimere widoki i piny Israel rupiri joma oido jorango neko go jotyeko tho.”</t>
+  </si>
+  <si>
+    <t>The return from Egypt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Munyo Yozefu owinjo ni Akelayus ama olunjo kom pa bamere Herode paka kere ma Yudeya, lworo omako go dok kendo kenyo. </t>
+  </si>
+  <si>
+    <t>Go otimo ameno ma miyo gima jatuchi wach Were owacho wotundi ni, “Ibino lwoŋo go ni Janazareth.”</t>
+  </si>
+  <si>
+    <t>He did that so  that it might be fulfilled what was spoken by the prophets: “He shall be called a Nazarene.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To gero pecho pere i tindi ma Nazareth. </t>
+  </si>
+  <si>
+    <t>And he went and lived in a city called Nazareth</t>
+  </si>
+  <si>
+    <t>But when he heard that Archelaus was reigning over Judea in place of his father Herod, he was afraid to go there</t>
+  </si>
+  <si>
+    <t>And being warned in a dream he withdrew to the district of Galilee. </t>
+  </si>
+  <si>
+    <t>Were omedo menyo rigo i lek, amomiyo go okidho i adech ma Galileya </t>
+  </si>
+  <si>
+    <t>Me a bol ma nywolirok pa Yesu Kristo, nyakwar Daudi, nyakwar Ibrayimu</t>
+  </si>
+  <si>
+    <t>Ibrayimu onywolo Isaka, Isaka to nywolo Yakobo, Yakobo to nywolo Yuda gi wutumin go;</t>
+  </si>
+  <si>
+    <t>Abraham was the father of Isaac, and Isaac the father of Jacob, and Jacob the father of Judah and his brothers</t>
+  </si>
+  <si>
+    <t>Yakobo to nywolo Yozefu, mobedo chwor Marya, monywolo Yesu milwoŋo ni Kristo.</t>
+  </si>
+  <si>
+    <r>
+      <t>Jacob fathered Joseph the husband of Mary, of whom Jesus was born, who is called Christ.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Raleway"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Ri ameno, wok kwoŋ Ibrayimu tundo kwoŋi Daudi, obedo luse ji apar g'aŋwen; odoko wok kwoŋ Daudi, tundo munyo oter jo yu Babilon, obedo luse ji apar gaŋwen; kendo wok munyo oter jo yu Babilon tundo kwoŋ Kristo, bende obedo luse ji apar g'aŋwen.</t>
+  </si>
+  <si>
+    <t>So all the generations from Abraham to David were fourteen generations, and from David to the deportation to Babylon fourteen generations, and from the deportation to Babylon to the Christ fourteen generations.</t>
+  </si>
+  <si>
+    <t>The birth of Jesus</t>
+  </si>
+  <si>
+    <t>Nywolirok pa Yesu Kristo</t>
+  </si>
+  <si>
+    <t>Now the birth of Jesus Christ took place in this way. When his mother Mary had been betrothed to Joseph, before they came together she was found to be with child from the Holy Spirit.</t>
+  </si>
+  <si>
+    <t>Gikenyo Yozefu chwore, rupiri oido obedo dhano motire aka komito miyo go wichkwot, oido paro weyo go nyaliŋliŋ.</t>
+  </si>
+  <si>
+    <t> Neni, munyo fuodi go paro ameno, malaika pa Ruoth to bino ri go i lek, to wacho ri go ni, “Yozefu wuodi pa Daudi, ikiri ilwor rwako Marya bedo dhako perin, rupiri go yach gi men pa Chuny Maleŋ.</t>
+  </si>
+  <si>
+    <r>
+      <t>Me apaka nywolirok pa Yesu Kristo obedo: Munyo Yozefu fuodi oido nyaka jochikere nywomirok kodi Marya min Yesu, ma fuodi korwako go i ot, to nenere ni go oido otyeko gamo iye i men pa Chuny Maleŋ.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Raleway"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>And her husband Joseph, being a just man and unwilling to put her to shame, resolved to divorce her quietly.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Raleway"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>But as he considered these things, behold, an angel of the Lord appeared to him in a dream, saying, “Joseph, son of David, do not fear to take Mary as your wife, for that which is conceived in her is from the Holy Spirit.</t>
+  </si>
+  <si>
+    <r>
+      <t>Go bino nywolo nyathi ma jayach, aka ibino chwoko nyinge ni Yesu; rupiri go ama bino botho ji pere kwoŋ recho pajo.”</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Raleway"/>
+      </rPr>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FF000000"/>
+        <rFont val="Raleway"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>She will bear a son, and you shall call his name Jesus, for he will save his people from their sins.”</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Raleway"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Nyako ma fuodi kuya jachwo bino gamo iye, to nywolo nyathi ma jayach, ma ibino chwoko nyinge ni “Emanwel”,dwoŋ mere ni, “Were ni gi wan.” </t>
+  </si>
+  <si>
+    <t> Behold, the virgin shall conceive and bear a son, and they shall call his name “Immanuel” which means, “ God with us.”  </t>
+  </si>
+  <si>
+    <t>Gino jye otimere, ŋey gima jatuchi wach Were oluwo wotundi i kare </t>
+  </si>
+  <si>
+    <t> All this took place to fulfill what the Lord had spoken by the prophet</t>
+  </si>
+  <si>
+    <t>Yozefu munyo ochiew, to timo paka malaika pa Were owacho ri go, to tero Marya bedo chiege.</t>
+  </si>
+  <si>
+    <t>When Joseph woke from sleep, he did as the angel of the Lord commanded him: he took his wife.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aka koŋeyere gine tundo munyo ochowo nywolo nyathi no </t>
+  </si>
+  <si>
+    <t>to chwoko nyinge ni Yesu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">but knew her not until she had given birth to a son </t>
+  </si>
+  <si>
+    <t>And he called his name Jesus.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,6 +490,32 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="17"/>
+      <color rgb="FF000000"/>
+      <name val="Raleway"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Raleway"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -116,12 +547,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -418,16 +855,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="65.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="53.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="65.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="53.42578125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -438,88 +875,507 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30">
       <c r="A2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30">
+      <c r="A3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30.75">
+      <c r="A4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="75">
+      <c r="A5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="60">
+      <c r="A7" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30.75">
+      <c r="A8" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="60">
+      <c r="A9" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="30.75">
+      <c r="A10" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="30">
+      <c r="A11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="45">
+      <c r="A12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="30">
+      <c r="A13" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="60">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="30">
+      <c r="A17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="30.75">
+      <c r="A18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="75">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="C18">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="45">
+      <c r="A19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="30">
-      <c r="A4" s="2" t="s">
+      <c r="C19">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="30">
+      <c r="A20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60">
+      <c r="A21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="45">
+      <c r="A22" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="45">
+      <c r="A23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="45">
+      <c r="A24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="45">
-      <c r="A5" s="2" t="s">
+      <c r="C24">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30">
+      <c r="A25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="30">
-      <c r="A6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="30">
-      <c r="A7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="45">
-      <c r="A8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="45">
-      <c r="A9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="2" t="s">
-        <v>16</v>
+      <c r="C25">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="30">
+      <c r="A26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="30">
+      <c r="A27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="30">
+      <c r="A28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="75">
+      <c r="A29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="45">
+      <c r="A30" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="30">
+      <c r="A31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="60">
+      <c r="A34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="30">
+      <c r="A35" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="30.75">
+      <c r="A36" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36">
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="30">
+      <c r="A37" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37">
+        <v>2.1800000000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38">
+        <v>2.1800000000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="30.75">
+      <c r="A41" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41">
+        <v>2.19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="45">
+      <c r="A42" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="30.75">
+      <c r="A43" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43">
+        <v>2.21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="45">
+      <c r="A44" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44">
+        <v>2.2200000000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="30">
+      <c r="A45" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C45">
+        <v>2.2200000000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C46">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="30">
+      <c r="A47" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C47">
+        <v>2.23</v>
       </c>
     </row>
   </sheetData>

--- a/Bible - NT.xlsx
+++ b/Bible - NT.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
   <si>
     <t>English</t>
   </si>
@@ -472,6 +472,184 @@
   </si>
   <si>
     <t>And he called his name Jesus.</t>
+  </si>
+  <si>
+    <t>Fuonji pa Yohana Jakibatisa</t>
+  </si>
+  <si>
+    <t>In those days John the Baptist came preaching in the wilderness of Judea</t>
+  </si>
+  <si>
+    <t>Ŋuti win, rupiri Ker ma polo ni chiegin!</t>
+  </si>
+  <si>
+    <t>Repent, for the kingdom of heaven is at hand.</t>
+  </si>
+  <si>
+    <t>I hongo no Yohana Jakibatisa obino to chako tito wach Were i thim ma Yudeya</t>
+  </si>
+  <si>
+    <t>Nyatoro koko i thim ni:</t>
+  </si>
+  <si>
+    <t>The voice of one crying in the wilderness</t>
+  </si>
+  <si>
+    <t>Prepare the way of the Lord; make his paths straight.</t>
+  </si>
+  <si>
+    <t>Yiki win royo pa Ruoth, tiri win rigo royo pere.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For this is he who was spoken of by the prophet Isaiah </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yohana oido a ŋata Isaya jatuchi wach Were chango oluwo kwoŋe chon </t>
+  </si>
+  <si>
+    <t>Ruuk pa Yohana oido otim ma yer ŋamira, aka go oido tweyo pyere gi del ma pyen, aka chiemo pere oido obedo bonyo kodi mo kich.</t>
+  </si>
+  <si>
+    <t>Ji jobino bonge wok Yerusalem, wok i adech ma Yudeya, kodi wok i adeche jye mothoko jwom Yordan.</t>
+  </si>
+  <si>
+    <t>Jotucho gimarecho pajo aka omiy jo batisimo i Yordan.</t>
+  </si>
+  <si>
+    <t>Then Jerusalem and all Judea and all the region about the Jordan were going out to him,</t>
+  </si>
+  <si>
+    <r>
+      <t>Now John wore a garment of camel’s hair and a leather belt around his waist, and his food was locusts and wild honey.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Raleway"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>They confessed their sins and were baptized by him in the Jordan.</t>
+  </si>
+  <si>
+    <t>Munyo Yohana oneno kweth Jofarisayo kodi Josadukayo jobino bonge limo batisimo, owacho ri jo ni, “Win nyithindhi thwole, ŋata onyutho win ryeko ma both kwoŋ keme pa Were ma chiegin bino?</t>
+  </si>
+  <si>
+    <t>But when he saw many of the Pharisees and Sadducees coming to his baptism, he said to them, “You brood of vipers! Who warned you to flee from the wrath to come?"</t>
+  </si>
+  <si>
+    <t>Timi win gima nyutho nike wityeko ŋuto gimarecho mewin kichutho.</t>
+  </si>
+  <si>
+    <t>Bear fruit in keeping with repentance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aka wikiri wipar ni winyalo nwaŋo kagoŋirok munyo wiwacho ni, ‘Ibrayimu obedo kwari wan.’ </t>
+  </si>
+  <si>
+    <t>Awacho ri win ni Were nyalo kwanyo kada telin me to loko nyikway Ibrayimu!</t>
+  </si>
+  <si>
+    <t>For I tell you, God is able from these stones to raise up children for Abraham. </t>
+  </si>
+  <si>
+    <t>And do not presume to say to yourselves, ‘We have Abraham as our father.’</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Even now the axe is laid to the root of the trees. </t>
+  </si>
+  <si>
+    <t>Every tree therefore that does not bear good fruit is cut down and thrown into the fire.</t>
+  </si>
+  <si>
+    <t>Kada pama le otyek yiko ma toŋo yen gi i tyendi gin!</t>
+  </si>
+  <si>
+    <t>Yath jye ma kinyak gimaber ibino toŋo woko tibolo i mach!</t>
+  </si>
+  <si>
+    <t>Batisimo pa Yesu</t>
+  </si>
+  <si>
+    <t>I hongo no Yesu owok Galileya to kidho Yordan to bino bongi Yohana ni womiy go batisimo.</t>
+  </si>
+  <si>
+    <t>To Yohana otemo juko go ka wacho ri go ni, “Aŋata oido aripo limo batisimo bongin, odoko ibino bongan ayino!”</t>
+  </si>
+  <si>
+    <t>Then Jesus came from Galilee to the Jordan to John, to be baptized by him.</t>
+  </si>
+  <si>
+    <t>The baptism of Jesus</t>
+  </si>
+  <si>
+    <r>
+      <t>John would have prevented him, saying, “I need to be baptized by you, and do you come to me?”</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Raleway"/>
+      </rPr>
+      <t>  </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Amiyo win batisimo kodi pi ma nyutho nike wityeko ŋuto; to ŋata bino luwan chien bino miyo win batisimo gi Chuny Maleŋ kodi mach. </t>
+  </si>
+  <si>
+    <t>Go loyan gi dwoŋ tektek ma akiripi kada tiŋo war pere.</t>
+  </si>
+  <si>
+    <t>I baptize you with water for repentance, but he who is coming after me will baptize you with the Holy Spirit and fire.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He is mightier than I that I am not worthy to carry his sandals. </t>
+  </si>
+  <si>
+    <t>His winnowing fork is in his hand, and he will clear his threshing floor and gather his wheat into the barn, but the chaff he will burn with unquenchable fire.</t>
+  </si>
+  <si>
+    <t>Go nitye g'odher pere ma yeko nyingi kal jye; go bino choko kal pere malilo to konjo i dero pere, to waŋo woko chuŋ i mach makitho.</t>
+  </si>
+  <si>
+    <t>The teachings of John the Baptist</t>
+  </si>
+  <si>
+    <t>To Yesu odwoko go ni, “Weyi watim ameno pama. Kole i tim me wabino tiro gimoro jye ma Were yenyo.”</t>
+  </si>
+  <si>
+    <t>To Yohana yeyo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tekin Yesu chowo limo batisimo, owok i pi. </t>
+  </si>
+  <si>
+    <t>Gikenyo polo oyawere ri go aka oneno Chuny Maleŋ loro piny i chal pa akuru to pye kwoŋe.</t>
+  </si>
+  <si>
+    <t>Gikenyo dwondi nyatoro oluwo wok i polo ni, “Me a Wuodan won mamaro, aka asangala gine.”</t>
+  </si>
+  <si>
+    <t>But Jesus answered him, “Let it be so now, for thus it is fitting for us to fulfill all righteousness.” </t>
+  </si>
+  <si>
+    <t>Then he consented.</t>
+  </si>
+  <si>
+    <t>And behold, a voice from heaven said, “This is my beloved Son, with whom I am well pleased.”</t>
+  </si>
+  <si>
+    <t>And when Jesus was baptized, immediately he went up from the water</t>
+  </si>
+  <si>
+    <t>And behold, the heavens were opened to him, and he saw the Spirit of God descending like a dove and coming to rest on him</t>
   </si>
 </sst>
 </file>
@@ -547,7 +725,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -561,6 +739,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -855,16 +1034,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="65.85546875" style="3" customWidth="1"/>
     <col min="2" max="2" width="53.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -874,7 +1054,7 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -885,7 +1065,7 @@
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="5">
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -896,7 +1076,7 @@
       <c r="B3" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="5">
         <v>1.2</v>
       </c>
     </row>
@@ -907,7 +1087,7 @@
       <c r="B4" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="5">
         <v>1.1599999999999999</v>
       </c>
     </row>
@@ -918,7 +1098,7 @@
       <c r="B5" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="5">
         <v>1.17</v>
       </c>
     </row>
@@ -929,7 +1109,7 @@
       <c r="B6" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="5">
         <v>1.18</v>
       </c>
     </row>
@@ -940,7 +1120,7 @@
       <c r="B7" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="5">
         <v>1.18</v>
       </c>
     </row>
@@ -951,7 +1131,7 @@
       <c r="B8" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="5">
         <v>1.19</v>
       </c>
     </row>
@@ -962,7 +1142,7 @@
       <c r="B9" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="5">
         <v>1.2</v>
       </c>
     </row>
@@ -973,7 +1153,7 @@
       <c r="B10" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="5">
         <v>1.21</v>
       </c>
     </row>
@@ -984,7 +1164,7 @@
       <c r="B11" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="5">
         <v>1.22</v>
       </c>
     </row>
@@ -995,7 +1175,7 @@
       <c r="B12" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="5">
         <v>1.22</v>
       </c>
     </row>
@@ -1006,7 +1186,7 @@
       <c r="B13" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="5">
         <v>1.23</v>
       </c>
     </row>
@@ -1017,7 +1197,7 @@
       <c r="B14" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="5">
         <v>1.24</v>
       </c>
     </row>
@@ -1028,7 +1208,7 @@
       <c r="B15" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="5">
         <v>1.24</v>
       </c>
     </row>
@@ -1039,7 +1219,7 @@
       <c r="B16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="5">
         <v>2.1</v>
       </c>
     </row>
@@ -1050,7 +1230,7 @@
       <c r="B17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="5">
         <v>2.2000000000000002</v>
       </c>
     </row>
@@ -1061,7 +1241,7 @@
       <c r="B18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="5">
         <v>2.2999999999999998</v>
       </c>
     </row>
@@ -1072,7 +1252,7 @@
       <c r="B19" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="5">
         <v>2.4</v>
       </c>
     </row>
@@ -1083,7 +1263,7 @@
       <c r="B20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="5">
         <v>2.5</v>
       </c>
     </row>
@@ -1094,7 +1274,7 @@
       <c r="B21" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="5">
         <v>2.6</v>
       </c>
     </row>
@@ -1105,7 +1285,7 @@
       <c r="B22" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="5">
         <v>2.7</v>
       </c>
     </row>
@@ -1116,7 +1296,7 @@
       <c r="B23" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="5">
         <v>2.8</v>
       </c>
     </row>
@@ -1127,7 +1307,7 @@
       <c r="B24" t="s">
         <v>6</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="5">
         <v>2.9</v>
       </c>
     </row>
@@ -1138,7 +1318,7 @@
       <c r="B25" t="s">
         <v>7</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="5">
         <v>2.1</v>
       </c>
     </row>
@@ -1149,7 +1329,7 @@
       <c r="B26" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="5">
         <v>2.11</v>
       </c>
     </row>
@@ -1160,7 +1340,7 @@
       <c r="B27" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="5">
         <v>2.11</v>
       </c>
     </row>
@@ -1171,7 +1351,7 @@
       <c r="B28" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="5">
         <v>2.12</v>
       </c>
     </row>
@@ -1182,7 +1362,7 @@
       <c r="B29" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="5">
         <v>2.13</v>
       </c>
     </row>
@@ -1193,7 +1373,7 @@
       <c r="B30" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="5">
         <v>2.14</v>
       </c>
     </row>
@@ -1204,7 +1384,7 @@
       <c r="B31" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="5">
         <v>2.15</v>
       </c>
     </row>
@@ -1215,7 +1395,7 @@
       <c r="B32" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="5">
         <v>2.16</v>
       </c>
     </row>
@@ -1226,7 +1406,7 @@
       <c r="B33" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="5">
         <v>2.13</v>
       </c>
     </row>
@@ -1237,7 +1417,7 @@
       <c r="B34" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="5">
         <v>2.16</v>
       </c>
     </row>
@@ -1248,7 +1428,7 @@
       <c r="B35" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="5">
         <v>2.16</v>
       </c>
     </row>
@@ -1259,7 +1439,7 @@
       <c r="B36" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="5">
         <v>2.17</v>
       </c>
     </row>
@@ -1270,7 +1450,7 @@
       <c r="B37" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="5">
         <v>2.1800000000000002</v>
       </c>
     </row>
@@ -1281,7 +1461,7 @@
       <c r="B38" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="5">
         <v>2.1800000000000002</v>
       </c>
     </row>
@@ -1308,7 +1488,7 @@
       <c r="B41" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="5">
         <v>2.19</v>
       </c>
     </row>
@@ -1319,7 +1499,7 @@
       <c r="B42" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="5">
         <v>2.2000000000000002</v>
       </c>
     </row>
@@ -1330,7 +1510,7 @@
       <c r="B43" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="5">
         <v>2.21</v>
       </c>
     </row>
@@ -1341,7 +1521,7 @@
       <c r="B44" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="5">
         <v>2.2200000000000002</v>
       </c>
     </row>
@@ -1352,7 +1532,7 @@
       <c r="B45" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="5">
         <v>2.2200000000000002</v>
       </c>
     </row>
@@ -1363,7 +1543,7 @@
       <c r="B46" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="5">
         <v>2.23</v>
       </c>
     </row>
@@ -1374,12 +1554,299 @@
       <c r="B47" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="5">
         <v>2.23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C48" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="30">
+      <c r="A49" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C49" s="5">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C50" s="5">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C51" s="5">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C52" s="5">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C53" s="5">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="45.75">
+      <c r="A54" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C54" s="5">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="30">
+      <c r="A55" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C55" s="5">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="30">
+      <c r="A56" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C56" s="5">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="45">
+      <c r="A57" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C57" s="5">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C58" s="5">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="30">
+      <c r="A59" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C59" s="5">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="30">
+      <c r="A60" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C60" s="5">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C61" s="5">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="30">
+      <c r="A62" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C62" s="5">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="45">
+      <c r="A63" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C63" s="5">
+        <v>3.11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="30">
+      <c r="A64" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C64" s="5">
+        <v>3.11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="45">
+      <c r="A65" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C65" s="5">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C66" s="5">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="30">
+      <c r="A67" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C67" s="5">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="30.75">
+      <c r="A68" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C68" s="5">
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="30">
+      <c r="A69" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C69" s="5">
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C70" s="5">
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="30">
+      <c r="A71" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C71" s="5">
+        <v>3.16</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="45">
+      <c r="A72" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C72" s="5">
+        <v>3.16</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="30">
+      <c r="A73" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C73" s="5">
+        <v>3.17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Bible - NT.xlsx
+++ b/Bible - NT.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="209">
   <si>
     <t>English</t>
   </si>
@@ -650,6 +650,352 @@
   </si>
   <si>
     <t>And behold, the heavens were opened to him, and he saw the Spirit of God descending like a dove and coming to rest on him</t>
+  </si>
+  <si>
+    <t>Jwogi temo Yesu</t>
+  </si>
+  <si>
+    <t>Munyo go ochowo odyechieŋ gi wor pyero aŋwen munyo riyo, Yesu owinjo kech.</t>
+  </si>
+  <si>
+    <t>Jwogi obino bonge to wacho ni, “K'inen ibedo Wuodi Were adyeri, ere apawiri telin me wolokere chiemo.”</t>
+  </si>
+  <si>
+    <t>Yesu odwoko ni, “Ondik ni, ‘Dhano kinyal kwo gi chiemo kende, to gi wach jye mawok i dhoki Were.’ ”</t>
+  </si>
+  <si>
+    <r>
+      <t>Gikenyo Chuny Maleŋ otero Yesu i thim ŋey jwogi wotem go.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Raleway"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Then Jesus was led up by the Spirit into the wilderness to be tempted by the devil.</t>
+  </si>
+  <si>
+    <r>
+      <t>And after fasting forty days and forty nights, he was hungry.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Raleway"/>
+      </rPr>
+      <t>  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>And the tempter came and said to him, “If you are the Son of God, command these stones to become loaves of bread.”</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Raleway"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>The devil tempts Jesus</t>
+  </si>
+  <si>
+    <t>Jesus answered, “It is written, “ ‘Man shall not live by bread alone, but by every word that comes from the mouth of God.’ ”</t>
+  </si>
+  <si>
+    <t>Gikenyo jwogi otero Yesu i tindi maleŋ to ketho go wi kisul ma Ot pa Were,</t>
+  </si>
+  <si>
+    <r>
+      <t>Then the devil took him to the holy city and set him on the pinnacle of the temple</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Raleway"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">He will command his angels concerning you and On their hands they will bear you up, lest you strike your foot against a stone. </t>
+  </si>
+  <si>
+    <t>Were bino oro rin jomalaika pere,ma jobino byelin i chingi gin,aka ikibino chadho tyendin kwoŋ tele.</t>
+  </si>
+  <si>
+    <t>o wacho ri go ni, “K'inen ibedo Wuodi Were ere paporiye piny"</t>
+  </si>
+  <si>
+    <t>And said to him, “If you are the Son of God, throw yourself down"</t>
+  </si>
+  <si>
+    <t>Yesu odwoko ni, “Kole ondik bende ni, ‘Ikiri item Ruoth Were perin.’ ”</t>
+  </si>
+  <si>
+    <r>
+      <t>Gikenyo jwogi otero Yesu wi got mabor swa, to nyutho go ker ma piny jye, gi dwoŋ mani iye jye.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Raleway"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t> Jwogi owacho ni, “Abino miyin gigo jye, ka iryewere ruwaŋan t'ilaman.” </t>
+  </si>
+  <si>
+    <t>Then Jesus said to him, “Be gone, Satan! For it is written, “ ‘You shall worship the Lord your God and him only shall you serve.’ ”</t>
+  </si>
+  <si>
+    <t> Again, the devil took him to a very high mountain and showed him all the kingdoms of the world and their glory.</t>
+  </si>
+  <si>
+    <t>Gikenyo Yesu odwoko ni, “Eye bongan Sitan! Ondik ni, ‘Lami Ruoth Were perin aka itiy ri go won kende.’ ”</t>
+  </si>
+  <si>
+    <t>The devil said, “All these I will give you, if you will fall down and worship me.” </t>
+  </si>
+  <si>
+    <r>
+      <t>Jesus replied, “Again it is written, ‘You shall not put the Lord your God to the test.’ ”</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Raleway"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Gikenyo jwogi oweyo go; aka jomalaika jobino jomiyo go kony.</t>
+  </si>
+  <si>
+    <t>Go oeye Nazareth, to kidho Kapernaum, tindi ma dho jwom Galileya, i adech mapa Zebulun kodi Naftal. </t>
+  </si>
+  <si>
+    <r>
+      <t>Then the devil left him, and behold, angels came and were ministering to him.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Raleway"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Munyo Yesu owinjo ni otwey Yohana, go oay to kidho Galileya.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FF000000"/>
+        <rFont val="Raleway"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t> Now when he heard that John had been arrested, he withdrew into Galilee. </t>
+  </si>
+  <si>
+    <t> And leaving Nazareth he went and lived in Capernaum by the sea, in the territory of Zebulun and Naphtali,.</t>
+  </si>
+  <si>
+    <t>14 so that what was spoken by the prophet Isaiah might be fulfilled</t>
+  </si>
+  <si>
+    <t>Gime otimere ma miyo gima Isaya jatuchi wach Were owacho wotundi i kare</t>
+  </si>
+  <si>
+    <t>Piny pa Zebulun, piny pa Naftal,thenge ma yu wakawaka, i thengi Yordan, Galileya, pa Jopath!</t>
+  </si>
+  <si>
+    <t>The land of Zebulun and the land of Naphtali, the way of the sea, beyond the Jordan, Galilee of the Gentiles</t>
+  </si>
+  <si>
+    <t>Ji moido jonitye i mudho joneno lero madwoŋ aka ri joma oido jonitye i piny ma mudho ma tho, lero otyeko menyere.”</t>
+  </si>
+  <si>
+    <t>The people dwelling in darkness have seen a great light, and for those dwelling in the region and shadow of death, on them a light has dawned.</t>
+  </si>
+  <si>
+    <t>Wok i hongo no kadho yuwaŋe Yesu ochako fuonjo ka wacho ni, “Ŋuti win recho rupiri Ker ma polo ni chiegin.”</t>
+  </si>
+  <si>
+    <t>Yesu lwoŋo chwo aŋwen ma jokitoga</t>
+  </si>
+  <si>
+    <t>Piyo piyo jono joweyo bwoo pajo, to joluwo go.</t>
+  </si>
+  <si>
+    <r>
+      <t>Yesu owacho ri jo ni, “Biye luwan win aloki win jokitoga ji.”</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Raleway"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>From that time Jesus began to preach, saying, “Repent, for the kingdom of heaven is at hand.”</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Raleway"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FF000000"/>
+        <rFont val="Raleway"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t> And he said to them, “Follow me, and I will make you fishers of men.”</t>
+  </si>
+  <si>
+    <t>Immediately they left their nets and followed him.</t>
+  </si>
+  <si>
+    <r>
+      <t>Munyo Yesu oido wotho dho Wakawaka Galileya, go oneno wutimere aryo ma jokitoga, Simon (milwoŋo ni Petro) kodi Andereya omin go, munyo oido jochiko rech i wakawaka gi bwoo rupiri oido jobedo jokitoga.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Raleway"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>While walking by the Sea of Galilee, he saw two brothers, Simon (who is called Peter) and Andrew his brother, casting a net into the sea, for they were fishermen. </t>
+  </si>
+  <si>
+    <t>Jesus calls four fishermen</t>
+  </si>
+  <si>
+    <t>Piyo piyo jono joweyo yee pajo gi baa gin, to joluwo Yesu.</t>
+  </si>
+  <si>
+    <t>Yesu tito wach gi botho ji</t>
+  </si>
+  <si>
+    <t>Yesu owotho i Galileya parom, munyo fuonjo Wach Maber kwoŋ Ker pa Were i kalamo pa Joyudaya, gi botho two kodi ramirok ma nger jye.</t>
+  </si>
+  <si>
+    <t>Wach ma mako kwoge onyay i piny Sirya gipi, momiyo ji jokelo ri go ji jye monwaŋo jotwo kiti two mopokere jye, kodi ramirok ma nger jye moido chando jo: ji ma jwogi ni kwoŋ gin, joma tho fum, kodi jonyaŋinya; to Yesu botho jo jye.</t>
+  </si>
+  <si>
+    <t>Immediately they left the boat and their father and followed him.</t>
+  </si>
+  <si>
+    <t>And great crowds followed him from Galilee and the Decapolis, and from Jerusalem and Judea, and from beyond the Jordan.</t>
+  </si>
+  <si>
+    <t>So his fame spread throughout all Syria, and they brought him all the sick, those afflicted with various diseases and pains, those oppressed by demons, epileptics, and paralytics, and he healed them.</t>
+  </si>
+  <si>
+    <r>
+      <t>Jesus went throughout all Galilee, teaching in their synagogues and proclaiming the gospel of the kingdom and healing every disease and every affliction among the people.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Raleway"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Yesu omedere woth aka oneno wutimere aryo man, Yakobo kodi Yohana, yach pa Zebedayo. </t>
+  </si>
+  <si>
+    <t>Onwaŋo jonitye i yee pajo gi baa gin Zebedayo joyiko bwoo pajo, to lwoŋo jo. </t>
+  </si>
+  <si>
+    <t>Jesus continued walking from there he saw two other brothers, James the son of Zebedee and John his brother</t>
+  </si>
+  <si>
+    <t>He found them in the boat with Zebedee their father, mending their nets, and he called them. </t>
+  </si>
+  <si>
+    <t>Jesus ministers the word to people</t>
+  </si>
+  <si>
+    <t>Kweth ji moasere joluwo go wok Galileya kodi Dekapoli  wok Yerusalem, Yudeya, kodi piny ma loka Yordan.</t>
+  </si>
+  <si>
+    <t>tindi mochokere apar</t>
+  </si>
+  <si>
+    <t>A group of ten cities</t>
   </si>
 </sst>
 </file>
@@ -1034,10 +1380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C73"/>
+  <dimension ref="A1:C104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72"/>
+    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1842,6 +2188,344 @@
       </c>
       <c r="C73" s="5">
         <v>3.17</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C74" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="30">
+      <c r="A75" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C75" s="5">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="30.75">
+      <c r="A76" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C76" s="5">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="45.75">
+      <c r="A77" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C77" s="5">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="45">
+      <c r="A78" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C78" s="5">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="30.75">
+      <c r="A79" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C79" s="5">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="30">
+      <c r="A80" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C80" s="5">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="45">
+      <c r="A81" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C81" s="5">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="30.75">
+      <c r="A82" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C82" s="5">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="30.75">
+      <c r="A83" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C83" s="5">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="30">
+      <c r="A84" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C84" s="5">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="45">
+      <c r="A85" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C85" s="5">
+        <v>4.101</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="30">
+      <c r="A86" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C86" s="5">
+        <v>4.1100000000000003</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="30">
+      <c r="A87" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C87" s="5">
+        <v>4.12</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="30">
+      <c r="A88" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C88" s="5">
+        <v>4.13</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="30">
+      <c r="A89" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C89" s="5">
+        <v>4.1399999999999997</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="30">
+      <c r="A90" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C90" s="5">
+        <v>4.1500000000000004</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="45">
+      <c r="A91" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C91" s="5">
+        <v>4.16</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="30.75">
+      <c r="A92" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C92" s="5">
+        <v>4.17</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C93" s="5">
+        <v>4.1801000000000004</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="60.75">
+      <c r="A94" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C94" s="5">
+        <v>4.18</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="30">
+      <c r="A95" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C95" s="5">
+        <v>4.1900000000000004</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C96" s="5">
+        <v>4.2009999999999996</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="30">
+      <c r="A97" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C97" s="5">
+        <v>4.21</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="30">
+      <c r="A98" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="30">
+      <c r="A99" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C99" s="5">
+        <v>4.22</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C100" s="5">
+        <v>4.2300000000000004</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="60.75">
+      <c r="A101" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C101" s="5">
+        <v>4.2300000000000004</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="60">
+      <c r="A102" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C102" s="5">
+        <v>4.24</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="45">
+      <c r="A103" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C103" s="5">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C104" s="5">
+        <v>4.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bible - NT.xlsx
+++ b/Bible - NT.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="347">
   <si>
     <t>English</t>
   </si>
@@ -996,13 +996,749 @@
   </si>
   <si>
     <t>A group of ten cities</t>
+  </si>
+  <si>
+    <t>Fuonji wi got</t>
+  </si>
+  <si>
+    <r>
+      <t>Yesu oneno kitipa ji, to idho wi got, aka munyo otyeko bedo piny, jofuonjirok pere jobino bothe</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Raleway"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>And he started teaching</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Raleway"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Aka ochako fuonjo jo ni:</t>
+  </si>
+  <si>
+    <t>“Josilwany a joma chandere i chuny gin, rupiri Ker ma polo obedo apa jo.</t>
+  </si>
+  <si>
+    <t>Josilwany a joma mwol, rupiri jobino lunjo piny.</t>
+  </si>
+  <si>
+    <t>Josilwany a joma nyutho jowoti gin wor, rupiri Were bino nyutho jo bende wor.</t>
+  </si>
+  <si>
+    <r>
+      <t>Blessed are the poor in spirit, for theirs is the kingdom of heaven.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Raleway"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Blessed are the pure in heart, for they shall see God.</t>
+  </si>
+  <si>
+    <t> Blessed are the merciful, for they shall receive mercy. </t>
+  </si>
+  <si>
+    <t>Blessed are those who hunger and thirst for righteousness, for they shall be satisfied.</t>
+  </si>
+  <si>
+    <t>Blessed are the meek, for they shall inherit the earth. </t>
+  </si>
+  <si>
+    <t>Blessed are those who mourn, for they shall be comforted.</t>
+  </si>
+  <si>
+    <r>
+      <t>Seeing the crowds, he went up on the mountain, and when he sat down, his disciples came to him.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Raleway"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Raleway"/>
+      </rPr>
+      <t>Josilwany a joma ywak,rupiri ibino kweyo chuny jo.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Raleway"/>
+      </rPr>
+      <t>Josilwany a joma nitye g'awanya madwoŋ ma timo gima Were yenyo, rupiri ibino yeŋo jo.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Raleway"/>
+      </rPr>
+      <t>Josilwany a joma chuny gin olony, rupiri jobino neno Were.</t>
+    </r>
+  </si>
+  <si>
+    <t>The sermon on the mount</t>
+  </si>
+  <si>
+    <t>Josilwany joma kweyo piny, rupiri ibino lwoŋo jo ni nyithindho pa Were.</t>
+  </si>
+  <si>
+    <t>Josilwany a joma ilwenyo gi jo ru timo gima Were yenyo, rupiri Ker ma polo obedo apa jo!</t>
+  </si>
+  <si>
+    <t>Win wi josilwany ka ji joyeto win aka jolwenyo gi win, ka jowacho wach jye kwoŋ win rupiri wibedo joma luwan.</t>
+  </si>
+  <si>
+    <t>Me apaka chango jotimo kir ri jotuchi wach Were machon.</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Raleway"/>
+      </rPr>
+      <t xml:space="preserve">Yodere win aka wisangala, rupiri kemba mewin obedo moasere i polo. </t>
+    </r>
+  </si>
+  <si>
+    <t> Rejoice and be glad, for your reward is great in heaven.</t>
+  </si>
+  <si>
+    <t>This is how they persecuted the prophets who were before you. </t>
+  </si>
+  <si>
+    <t>Blessed are you when others revile you and persecute you and utter all kinds of evil against you falsely on my account.</t>
+  </si>
+  <si>
+    <t>Blessed are those who are persecuted for righteousness’ sake, for theirs is the kingdom of heaven. </t>
+  </si>
+  <si>
+    <r>
+      <t>Blessed are the peacemakers, for they shall be called sons of God.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Raleway"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Chumbi kodi lero</t>
+  </si>
+  <si>
+    <t>Salt and light</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wibedo kado chumbi ma piny. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To ka kado chumbi orwenyo woko chwe mere, aŋo ma nyalo miyo go bedo mamit kendo? </t>
+  </si>
+  <si>
+    <t>Lokere gima ongoye kony; amomiyo ikonjo woko to ji nyono gi tyendi gin.</t>
+  </si>
+  <si>
+    <t>It is no longer good for anything except to be thrown out and trampled under people’s feet. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">But if salt has lost its taste, how shall its saltiness be restored? </t>
+  </si>
+  <si>
+    <t>You are the salt of the earth.</t>
+  </si>
+  <si>
+    <t>Win wiŋati wibedo lero ma piny.</t>
+  </si>
+  <si>
+    <t>You are the light of the world.</t>
+  </si>
+  <si>
+    <t>Tindi moger wi tendere madwoŋ kipanere.</t>
+  </si>
+  <si>
+    <t>A city set on a hill cannot be hidden. </t>
+  </si>
+  <si>
+    <t>Ri ameno lero mewin bende ripo menyo iye jye ŋey ji jowoneni gima beyo ma witimo to jopako Baa win mani polo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nor do people light a lamp and put it under a basket, but on a stand, and it gives light to all in the house. </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Raleway"/>
+      </rPr>
+      <t>Ongoye ŋata chwinyo tala to ryewo i agono; kuchiel go ripo ŋawo tala no malo kuma nyalo miyo lero ri ji jye ma ot.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Raleway"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Fuonji kwoŋ Chik</t>
+  </si>
+  <si>
+    <t> In the same way, let your light shine before others, so that they may see your good works and give glory to your Father who is in heaven. </t>
+  </si>
+  <si>
+    <t> Adyeri awacho ri win, ka polo gi piny fuodi nitye, ongoye kada gimathin kosa adech mondhilo kwoŋ Chik mibino kwanyo woko, to bino bedo ama tundo kama gimoro jye otyeko timer'iye. </t>
+  </si>
+  <si>
+    <r>
+      <t>Do not think that I have come to abolish the Law or the Prophets; I have not come to abolish them but to fulfill them.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Raleway"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Wikiri wipar nike abino ka kwanyo woko Chik pa Musa kodi fuonji pa jotuchi wach Were, to abino nyutho dwoŋ mere maradyeri ayin.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Raleway"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t> For truly, I say to you, until heaven and earth pass away, not an iota, not a dot, will pass from the Law until all is accomplished. </t>
+  </si>
+  <si>
+    <t>For I tell you, unless your righteousness exceeds that of the scribes and Pharisees, you will never enter the kingdom of heaven. </t>
+  </si>
+  <si>
+    <t>Amomiyo, awacho ri win ni wikibino nyalo donjo i Ker ma polo kwanyo woko ka wibedo gi leŋo ma kalo apa jofuonji ma Chik kodi Jofarisayo i timo gima Were yenyo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amomiyo nyatoro jye mokweri winjo kada gimoro nyaka mathin kwoŋ Chik aka ofuonji joman bende timo ameno, bino bedo ŋata loyo thino i Ker ma polo. </t>
+  </si>
+  <si>
+    <t>Kuchiel nyatoro jye mowinji Chik aka ofuonji joman bende timo ameno, bino bedo ŋata dwoŋ swa i Ker ma polo. </t>
+  </si>
+  <si>
+    <t>Therefore whoever relaxes one of the least of these commandments and teaches others to do the same will be called least in the kingdom of heaven.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> But whoever does them and teaches them will be called great in the kingdom of heaven.</t>
+  </si>
+  <si>
+    <t>Teaching on the law</t>
+  </si>
+  <si>
+    <t>Fuonji kwoŋ nge</t>
+  </si>
+  <si>
+    <r>
+      <t>“You have heard that it was said to those of old, ‘You shall not murder; and whoever murders will be liable to judgment.’</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Raleway"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FF000000"/>
+        <rFont val="Raleway"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Wityeko winjo ni chango owach ri ji machon ni, ‘Ikiri ineki, aka nyatoro jye ma janek ibino tero go ruwaŋ jathum banja.’</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Raleway"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> To pama onyo awacho ri win ama: ŋata omaki nge g'omin bino bedo gi banja kapido. </t>
+  </si>
+  <si>
+    <t>Ŋata otim rooro kwoŋ omin ibino tero go ruwaŋ jothumi banja, aka ŋata oyeti omin ni, ‘Mamiŋ ma bu kony,’ ibino bolo go i mach makitho. </t>
+  </si>
+  <si>
+    <t>But I say to you that everyone who is angry with his brother will be liable to judgment.</t>
+  </si>
+  <si>
+    <t>Whoever insults his brother will be liable to the council; and whoever says, ‘You fool!’will be liable to the hell of fire. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">So if you are offering your gift at the altar and there remember that your brother has something against you, leave your gift there before the altar and go. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amomiyo ka onwaŋo itero mich perin ri Were wi alitar to gikenyo ipoyo nike omerin nitye gi dhaw kodin,  weyi mich perin i nyim alitar kenyo, </t>
+  </si>
+  <si>
+    <t>kutho ikidhi iyiki wach g'omerin aka nyaka idwoki imiyi Were mich perin.</t>
+  </si>
+  <si>
+    <t>First be reconciled to your brother, and then come and offer your gift to God</t>
+  </si>
+  <si>
+    <t>Ka winotundi kenyo, go bino bolin i chingi jathumi banja, ma bino kethin i chingi joserikale ma katwech titweyin. </t>
+  </si>
+  <si>
+    <t>Come to terms quickly with your accuser while you are going with him to court</t>
+  </si>
+  <si>
+    <t>When you arrive there, she will hand you over to the judge, and the judge to the guard, and you be put in prison.</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Ka dhano ni gi wach moro kodin aka mito terin kapido, yiki gine wach no ma fuodi hongo nitye, ka fuodi wikitundo kapido. </t>
+    </r>
+  </si>
+  <si>
+    <t>Ibino bedo kenyo, awacho rin, nyuka inochul kir pesa machowe mothumi rin.</t>
+  </si>
+  <si>
+    <t>I say to you, you will never get out until you have paid the last penny.</t>
+  </si>
+  <si>
+    <t>Teaching on murder</t>
+  </si>
+  <si>
+    <t>Fuonji kwoŋ turo chik ma nywomirok</t>
+  </si>
+  <si>
+    <t>Wityeko winjo paka chango owach ni, ‘Ikiri itim chot.</t>
+  </si>
+  <si>
+    <t>To pama awacho ri win ama: ŋata ŋiyo dhako moro aka chunye wanya go, meno otyeko timo gine chot gi i chunye. </t>
+  </si>
+  <si>
+    <t>But I say to you that everyone who looks at a woman with lustful intent has already committed adultery with her in his heart. </t>
+  </si>
+  <si>
+    <r>
+      <t>“You have heard that it was said, ‘You shall not commit adultery.’</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Raleway"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FF000000"/>
+        <rFont val="Raleway"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>Teaching on breaking the law of marriage</t>
+  </si>
+  <si>
+    <t>For it is better that you lose one of your members than that your whole body be thrown into hell. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amomiyo k'inen waŋin marachuch miyin timo gimarach, goli woko iboli woko! </t>
+  </si>
+  <si>
+    <t>Kole ber ikeŋi adech moro ma delkwoŋin loyo nwaŋo delkwoŋin gipi tibolo i mach makitho. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">If your right eye causes you to sin, tear it out and throw it away. </t>
+  </si>
+  <si>
+    <t>And if your right hand causes you to sin, cut it off and throw it away.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For it is better that you lose one of your members than that your whole body go into hell.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K'inen chingin marachuch miyin timo gimarach, ŋondi ibol woko! </t>
+  </si>
+  <si>
+    <t>Rupiri ber iremi chingin achiel loyo delkwoŋin gipi kidho i mach makitho.</t>
+  </si>
+  <si>
+    <t>Fuonji kwoŋ ryemo dhako</t>
+  </si>
+  <si>
+    <r>
+      <t>Chango chon owach ni, ‘Nyatoro ma ryemo woko chiege ripo miyo go balwa ma ryemo go i ndiiko.’</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Raleway"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Teaching on divorcing your wife</t>
+  </si>
+  <si>
+    <r>
+      <t>It was also said, ‘Whoever divorces his wife, let him give her a certificate of divorce.’</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Raleway"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">To pama awacho ri win ni: nyatoro jye moryemi chiege ri wach moro jye ma kobedo wach ma kidakana, meno go miyo chiege donjo i chot. </t>
+  </si>
+  <si>
+    <t>Aka ŋata nywomo dhako ma pameno, meno bende timo gine chot.</t>
+  </si>
+  <si>
+    <t> But I say to you that everyone who divorces his wife, except on the ground of sexual immorality, makes her commit adultery.</t>
+  </si>
+  <si>
+    <t>And whoever marries a divorced woman commits adultery.</t>
+  </si>
+  <si>
+    <t>Fuonji kwoŋ kwoŋirok</t>
+  </si>
+  <si>
+    <t>Teaching on swearing</t>
+  </si>
+  <si>
+    <r>
+      <t>Wityeko winjo paka chango chon owach ni, ‘Ikiri ikwoŋere ma twodo, to timi gima ikwoŋere timo i nyim Ruoth.’</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Raleway"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FF000000"/>
+        <rFont val="Raleway"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Again you have heard that it was said to those of old, ‘You shall not swear falsely, but shall perform to the Lord what you have sworn.’</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Raleway"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t> But I say to you, Do not take an oath at all, either by heaven, for it is the throne of God, or by the earth, for it is his footstool, or by Jerusalem, for it is the city of the great King. </t>
+  </si>
+  <si>
+    <t>Odoko ikiri ikwoŋere gi wiyin, rupiri ikinyal loko kada yer achiel matar wobedi machol kosa machol wobedi matar.</t>
+  </si>
+  <si>
+    <t> 37 Wachi nyaka ni, ‘Ey’ kosa ‘Be’; gima kalo kenyo man m'inowachi meno wok bongi Ŋatarach.</t>
+  </si>
+  <si>
+    <t>To pama awacho ri win ni: ikiri ikwoŋere kada mathin ka itimo chikirok, ikiri ikwoŋere gi polo, rupiri meno kom pa Were,  kosa gi piny, rupiri meno kaywomo tyende, kosa gi Yerusalem, rupiri meno obedo tindi pa Kere madwoŋ.</t>
+  </si>
+  <si>
+    <t> And do not take an oath by your head, for you cannot make one hair white or black. </t>
+  </si>
+  <si>
+    <t>Let what you say be simply ‘Yes’or ‘No’; anything more than this comes from evil.</t>
+  </si>
+  <si>
+    <t>Fuonji kwoŋ chulo kwor</t>
+  </si>
+  <si>
+    <r>
+      <t>“Wityeko winjo chango chon paka owach ni, ‘Waŋ chulo kwor gi waŋ, lak bende gi lak.’</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Raleway"/>
+      </rPr>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FF000000"/>
+        <rFont val="Raleway"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t> Ka dhano okwayin gimoro, miyi go, aka ka nyatoro mito gimoro mochiko chulo, miyi go.</t>
+  </si>
+  <si>
+    <t>Aka ka nyatoro oromin wothi mairo achiel, wothi gine mairo aryo. </t>
+  </si>
+  <si>
+    <t>Aka ka nyatoro oterin i kapido ru yenyo sat perin, weyi go woteri kir kot perin bende. </t>
+  </si>
+  <si>
+    <r>
+      <t>“You have heard that it was said, ‘An eye for an eye and a tooth for a tooth.’</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Raleway"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FF000000"/>
+        <rFont val="Raleway"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>Give to the one who begs from you, and do not refuse the one who would borrow from you. </t>
+  </si>
+  <si>
+    <t> And if anyone forces you to go one mile, go with him two miles. </t>
+  </si>
+  <si>
+    <t> And if anyone would sue you and take your tunic, let him have your cloak as well.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To onyo pama awacho ri win ni: ikiri ichul kwor kwoŋ ŋata timo rin marach. </t>
+  </si>
+  <si>
+    <t>Ka nyatoro ogoyo lembin marachuch g'adhoŋ, weyi wogoyi lembin maracham bende. </t>
+  </si>
+  <si>
+    <t>But I say to you, Do not resist the one who is evil.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> But if anyone slaps you on the right cheek, turn to him the other also. </t>
+  </si>
+  <si>
+    <t>Maro jokwor</t>
+  </si>
+  <si>
+    <t>Teachin g on revenge</t>
+  </si>
+  <si>
+    <t>Loving enemies</t>
+  </si>
+  <si>
+    <t>kole go miyo chieŋ pere lyel ri ji marecho kodi mabeyo ma rom, aka go miyo joma beyo gi joma recho jye koth. </t>
+  </si>
+  <si>
+    <t> 48 Bedi win maleŋ paka Baa win mani polo leŋ.</t>
+  </si>
+  <si>
+    <t>For he makes his sun rise on the evil and on the good, and sends rain on the just and on the unjust.</t>
+  </si>
+  <si>
+    <t>To onyo pama awacho ri win ni, mari win jokwor mewin, odoko kwayi win ri joma timo ri win marach, aka nyaka wibino bedo nyithindho pa Baa win mani polo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">But I say to you, Love your enemies and pray for those who persecute you,  so that you may be sons of your Father who is in heaven. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raŋo ma di wigen ni womiy win kemba ka wimaro ji ma bende jomaro win won kende? </t>
+  </si>
+  <si>
+    <t>Jochoki misolo bende jokitim ameno?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For if you love those who love you, what reward do you have? </t>
+  </si>
+  <si>
+    <t>Do not even the tax collectors do the same? </t>
+  </si>
+  <si>
+    <t>Jopath bende jokitim ameno?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Do not even the Gentiles do the same? </t>
+  </si>
+  <si>
+    <t>And if you greet only your brothers, what more are you doing than others?</t>
+  </si>
+  <si>
+    <t>You therefore must be perfect, as your heavenly Father is perfect.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To ka wimothere wiwegi gi wegi, meno witimoye aŋo mopokere kodi gima ji man jotimo? </t>
+  </si>
+  <si>
+    <r>
+      <t>Wityeko winjo chango chon paka owach ni, ‘Mari mere perin, aka dakere kodi jakwor perin.’</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Raleway"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FF000000"/>
+        <rFont val="Raleway"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>You have heard that it was said, ‘You shall love your neighbor and hate your enemy.’</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Raleway"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FF000000"/>
+        <rFont val="Raleway"/>
+      </rPr>
+      <t/>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1044,6 +1780,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Raleway"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Raleway"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1071,7 +1818,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1086,6 +1833,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1380,10 +2130,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:C173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="B101" sqref="B101"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="B163" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2526,6 +3276,756 @@
       </c>
       <c r="C104" s="5">
         <v>4.25</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C105" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="30.75">
+      <c r="A106" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C106" s="5">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="15.75">
+      <c r="A107" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C107" s="5">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="30.75">
+      <c r="A108" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C108" s="5">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="30">
+      <c r="A109" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C109" s="5">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C110" s="5">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="30">
+      <c r="A111" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C111" s="5">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="30">
+      <c r="A112" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C112" s="5">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C113" s="5">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="30.75">
+      <c r="A114" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C114" s="5">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="30">
+      <c r="A115" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C115" s="5">
+        <v>5.101</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="45">
+      <c r="A116" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C116" s="5">
+        <v>5.1100000000000003</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="30">
+      <c r="A117" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C117" s="5">
+        <v>5.12</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="30">
+      <c r="A118" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C118" s="5">
+        <v>5.13</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C119" s="5">
+        <v>5.13</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C120" s="5">
+        <v>5.13</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="30">
+      <c r="A121" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C121" s="5">
+        <v>5.13</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="30">
+      <c r="A122" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C122" s="5">
+        <v>5.13</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C123" s="5">
+        <v>5.14</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C124" s="5">
+        <v>5.14</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="30">
+      <c r="A125" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C125" s="5">
+        <v>5.15</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="45">
+      <c r="A126" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C126" s="5">
+        <v>5.16</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C127" s="5">
+        <v>5.17</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="45">
+      <c r="A128" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C128" s="5">
+        <v>5.17</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="45">
+      <c r="A129" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C129" s="5">
+        <v>5.18</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="45">
+      <c r="A130" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C130" s="5">
+        <v>5.19</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="30">
+      <c r="A131" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C131" s="5">
+        <v>5.19</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="45">
+      <c r="A132" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C132" s="5">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C133" s="5">
+        <v>5.2009999999999996</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="45.75">
+      <c r="A134" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C134" s="5">
+        <v>5.21</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="30">
+      <c r="A135" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C135" s="5">
+        <v>5.22</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="45">
+      <c r="A136" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C136" s="5">
+        <v>5.22</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="45">
+      <c r="A137" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C137" s="5">
+        <v>5.23</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="30">
+      <c r="A138" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C138" s="5">
+        <v>5.24</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="30">
+      <c r="A139" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C139" s="5">
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="45">
+      <c r="A140" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C140" s="5">
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="30">
+      <c r="A141" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C141" s="5">
+        <v>5.26</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="30.75">
+      <c r="A143" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="B143" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="C143" s="5">
+        <v>5.27</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="45">
+      <c r="A144" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="C144" s="5">
+        <v>5.28</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="30">
+      <c r="A145" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C145" s="5">
+        <v>5.29</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="30">
+      <c r="A146" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C146" s="5">
+        <v>5.29</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="30">
+      <c r="A147" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C147" s="5">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="30">
+      <c r="A148" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C148" s="5">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C149" s="5">
+        <v>5.3101000000000003</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="30.75">
+      <c r="A150" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C150" s="5">
+        <v>5.31</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="45">
+      <c r="A151" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C151" s="5">
+        <v>5.32</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="30">
+      <c r="A152" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C152" s="5">
+        <v>5.32</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="45.75">
+      <c r="A154" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C154" s="5">
+        <v>5.33</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="60">
+      <c r="A155" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="B155" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="C155" s="5">
+        <v>5.34</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="30">
+      <c r="A156" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C156" s="5">
+        <v>5.36</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="30">
+      <c r="A157" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="C157" s="5">
+        <v>5.37</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="30.75">
+      <c r="A159" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="C159" s="5">
+        <v>5.38</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="30">
+      <c r="A160" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="B160" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="C160" s="5">
+        <v>5.39</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="30">
+      <c r="A161" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="B161" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="C161" s="5">
+        <v>5.39</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="30">
+      <c r="A162" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C162" s="5">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="30">
+      <c r="A163" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C163" s="5">
+        <v>5.41</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="30">
+      <c r="A164" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C164" s="5">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C165" s="5">
+        <v>5.43</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="30.75">
+      <c r="A166" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C166" s="5">
+        <v>5.43</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="45">
+      <c r="A167" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="B167" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="C167" s="5">
+        <v>5.44</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="30">
+      <c r="A168" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="B168" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="C168" s="5">
+        <v>5.45</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="30">
+      <c r="A169" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="B169" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="C169" s="5">
+        <v>5.46</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="B170" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="C170" s="5">
+        <v>5.46</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="30">
+      <c r="A171" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C171" s="5">
+        <v>5.47</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C172" s="5">
+        <v>5.47</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="30">
+      <c r="A173" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C173" s="5">
+        <v>5.48</v>
       </c>
     </row>
   </sheetData>

--- a/Bible - NT.xlsx
+++ b/Bible - NT.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="453">
   <si>
     <t>English</t>
   </si>
@@ -1731,6 +1731,505 @@
         <rFont val="Raleway"/>
       </rPr>
       <t/>
+    </r>
+  </si>
+  <si>
+    <t>Fuonji kwoŋ konyirok</t>
+  </si>
+  <si>
+    <t>Gwokere win wikiri winyuthi tim mewin mabeyo i waŋi ji ni aka ji jowoneni to jofuoyo win. Ka witimo ameno i dyer ji wikolim kemba bongi Baa win mani polo.</t>
+  </si>
+  <si>
+    <t>Amomiyo ka wimiyo jachandi gimoro, wikiri wiasa nyutho kamaler, paka joma rendere jotimo i kalamo pa Joyudaya kodi i royo mokare i tindi. Jotimo ameno nike ji jowopaki jo.</t>
+  </si>
+  <si>
+    <t>Adyeri awacho ri win, otyek miyo jo kemba pajo mopoŋ.</t>
+  </si>
+  <si>
+    <t>Thus, when you give to the needy, sound no trumpet before you, as the hypocrites do in the synagogues and in the streets, that they may be praised by others.</t>
+  </si>
+  <si>
+    <r>
+      <t>Truly, I say to you, they have received their reward.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Raleway"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>But when you give to the needy, do not let your left hand know what your right hand is doing,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Raleway"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>so that your giving may be in secret.</t>
+    </r>
+  </si>
+  <si>
+    <t>And your Father who sees in secret will reward you.</t>
+  </si>
+  <si>
+    <r>
+      <t>To ka ichwayo ri jachandi gimoro, konyi go ma kada mere perin ma kachunyin koŋeyo,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ŋey wobedi gima nyaliŋliŋ.</t>
+    </r>
+  </si>
+  <si>
+    <t>Aka Benin ma neno gima itimo nyaliŋliŋ, ama bino miyin kemba.</t>
+  </si>
+  <si>
+    <t>Fuonji kwoŋ kwayo</t>
+  </si>
+  <si>
+    <t>Teaching on charity</t>
+  </si>
+  <si>
+    <r>
+      <t>Beware of practicing your charitable deeds before other people in order to be seen by them, for then you will have no reward from your Father who is in heaven.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Raleway"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Teaching on prayer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ka ikwayo, ikiri ichale kodi joma jorendere! </t>
+  </si>
+  <si>
+    <t>Jomaro chungo ka jokwayo i kalamo pa Joyudaya kodi i thengi royo mokare ma tindi ŋey dhano jye wonen jo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Adyeri awacho ri win, ameno jotyeko limo kemba pajo kichutho.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">And when you pray, you must not be like the hypocrites. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">For they love to stand and pray in the synagogues and at the street corners, that they may be seen by others. </t>
+  </si>
+  <si>
+    <t>Truly, I say to you, they have received their reward.</t>
+  </si>
+  <si>
+    <t>But when you pray, go into your room and shut the door and pray to your Father who is in secret.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To ka ikwayo, donji i ot perin ichiegi thigo, aka ikway Benin, ma kinenere kamaler. </t>
+  </si>
+  <si>
+    <t>Aka Benin, ma neno gima itimo nyaliŋliŋ bino miyin kemba.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> And your Father who sees in secret will reward you. </t>
+  </si>
+  <si>
+    <t>Amomiyo wikiri wichale gi jo; kole Baa win mani polo oŋeyo gima wichando kada ma fuodi wikikwayo go. </t>
+  </si>
+  <si>
+    <t>Do not be like them, for your Father knows what you need before you ask him.</t>
+  </si>
+  <si>
+    <t>And when you pray, do not heap up empty phrases as the Gentiles do, for they think that they will be heard for their many words. </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I kwayo perin, ikiri ior wach kweth mongoye kony paka jokafiri jotimo; ato joparo ni Were bino winjo jo ru kwayo pajo maboyo.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Pray then like this: “Our Father in heaven, hallowed be your name.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FF000000"/>
+        <rFont val="Raleway"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>Your kingdom come, your will be done, on earth as it is in heaven.  </t>
+  </si>
+  <si>
+    <t> Ker perin wobin, gima iyenyo wotimere i piny paka timere i polo.</t>
+  </si>
+  <si>
+    <t>Miyi waye konon chiemo mawan ma noknok;</t>
+  </si>
+  <si>
+    <t>Me apaka wiripo kwayo,"Bawan mani polo, nyingin wolwor"</t>
+  </si>
+  <si>
+    <t>Give us this day our daily bread</t>
+  </si>
+  <si>
+    <t>And forgive us our debts, as we also have forgiven our debtors. </t>
+  </si>
+  <si>
+    <t>Chwaki ri wan gimarecho mawan; Paka wachwako ri joma timo ri wan marach.</t>
+  </si>
+  <si>
+    <r>
+      <t>And lead us not into temptation, but deliver us from evil.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Raleway"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FF000000"/>
+        <rFont val="Raleway"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>Ikiri iter wan ka ratem, to bothi wan ayino kwoŋ Ŋatarach,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For Yours is the kingdom and the power and the glory forever. </t>
+  </si>
+  <si>
+    <t>Amen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ameno.</t>
+  </si>
+  <si>
+    <t>Rupiri ker obedo aperin, kodi men, kodi dwoŋ, chil gi chil.</t>
+  </si>
+  <si>
+    <t>To ka wikichwaki recho pa joman, ameno Baa win mani polo bende kibino chwako ri win recho ma wityeko timo.</t>
+  </si>
+  <si>
+    <t>For if you forgive others their trespasses, your heavenly Father will also forgive you.</t>
+  </si>
+  <si>
+    <t> But if you do not forgive others their trespasses, neither will your Father forgive your trespasses.</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Kole ka wichwako ri ji recho ma jotimo ri win, Baa win mani polo bende bino chwako win.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Fuonji kwoŋ riyo kech</t>
+  </si>
+  <si>
+    <t>Teaching on fasting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aka ka wiriyo kech, wikiri winenere pa wigut paka joma rendere. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">And when you fast, do not look gloomy like the hypocrites, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ato jonyieko waŋ gin ŋey ji jye jowoŋey nike joriyo kech. </t>
+  </si>
+  <si>
+    <t>Adyeri awacho ri win, ameno jotyeko limo kemba pajo mopoŋ. </t>
+  </si>
+  <si>
+    <t>Truly, I say to you, they have received their reward. </t>
+  </si>
+  <si>
+    <t>Aka Benin, ma neno gima itimo nyaliŋliŋ, ama bino miyin kemba.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">But when you fast, anoint your head and wash your face, that your fasting may not be seen by others but by your Father who is in secret. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To ka iriyo kech, lwoki waŋin kendo iyiki wiyin, aka joman jokiri jowoneni nike iriyo kech; Benin kende ma kinenere kamaler ama bino ŋeyo. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">For they disfigure their faces that their fasting may be seen by others. </t>
+  </si>
+  <si>
+    <t>Kano ŋaŋo i polo</t>
+  </si>
+  <si>
+    <t>Kole kama di ŋaŋo perin ama chunyin bed'iye ndir jye.</t>
+  </si>
+  <si>
+    <t>Storing wealth in heaven</t>
+  </si>
+  <si>
+    <t>Wikiri wikan ŋaŋo mewin i piny ka, kama masirigi kodi nyal jobino nyiek'iye, aka jokwo jobino donj'iye to jokwalo woko.</t>
+  </si>
+  <si>
+    <t>To kuchiel, kani win ŋaŋo mewin i polo, kama masirigi kodi nyal jokibino nyiek'iye, aka jokwo jokibino donj'iye kwalo. </t>
+  </si>
+  <si>
+    <t>Do not lay up for yourselves treasures on earth, where moth and rust destroy and where thieves break in and steal.</t>
+  </si>
+  <si>
+    <t>But lay up for yourselves treasures in heaven, where neither moth nor rust destroys and where thieves do not break in and steal.</t>
+  </si>
+  <si>
+    <t>For where your treasure is, there your heart will be also.  </t>
+  </si>
+  <si>
+    <t>Lero ma delkwoŋ dhano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The eye is the lamp of the body. </t>
+  </si>
+  <si>
+    <t>Waŋ meno tala ma del.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Amomiyo ka lero ma kwoŋin olokere mudho, mudho bino asere marom nedi?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> If then the light in you is darkness, how great is the darkness!</t>
+  </si>
+  <si>
+    <t>So, if your eye is healthy, your whole body will be full of light, but if your eye is bad, your whole body will be full of darkness.</t>
+  </si>
+  <si>
+    <t>Ka waŋin olama, delkwoŋin gipi lero bino poŋ'iye; to ka waŋin kolama, delkwoŋin bino bedo i mudho.</t>
+  </si>
+  <si>
+    <t>The light of the human body</t>
+  </si>
+  <si>
+    <t>Were kodi lim</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ikinyal tiyo ri Were kodi ri lim bende.</t>
+  </si>
+  <si>
+    <t>Ongoye ŋata nyalo tiyo ri ruodhe aryo; go bino maro achiel to dak man, kosa nyalo tiyo ri achiel to chayo man.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No one can serve two masters, for either he will hate the one and love the other, or he will be devoted to the one and despise the other. </t>
+  </si>
+  <si>
+    <t>You cannot serve God and money. </t>
+  </si>
+  <si>
+    <t>Therefore I tell you, do not be anxious about your life, what you will eat or what you will drink, nor about your body, what you will put on.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Is not life more than food, and the body more than clothing?</t>
+  </si>
+  <si>
+    <t>Are you not of more value than they?</t>
+  </si>
+  <si>
+    <t>Ŋa kwoŋ win ma nyalo medo kiyindira i kwo pere ru rembo ri gikipiny no?</t>
+  </si>
+  <si>
+    <t>To kere win wikiloy winyin no bori?</t>
+  </si>
+  <si>
+    <t>Adyer kwo pa dhano kiloy chiemo, odoko delkwoŋe kiloy ruk? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neni win winyin ma joucho malo, jokipidhi kodhi, jokichoki chiemo jokethi i dere, to kole Baa win mani polo kuro jo! </t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Amomiyo awacho ri win gime: wikiri wirembi kwoŋ girachama kodi giramadha ma wiyenyo ma kwo, kosa ruk ri delkwoŋ win. </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Look at the birds of the air: they neither sow nor reap nor gather into barns, and yet your heavenly Father feeds them. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">And which of you by being anxious can add a single hour to his span of life?And why are you anxious about clothing? </t>
+  </si>
+  <si>
+    <t>Kiyenyere medo teko man wi teko ma piny moyawere kelo.</t>
+  </si>
+  <si>
+    <r>
+      <t>Therefore do not be anxious, saying, ‘What shall we eat?’or ‘What shall we drink?’or ‘What shall we wear?’</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Raleway"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Sufficient for the day is its own trouble.</t>
+  </si>
+  <si>
+    <t>Consider the lilies of the field, how they grow: they neither toil nor spin,</t>
+  </si>
+  <si>
+    <t>yet I tell you, even Solomon in all his glory was not arrayed like one of these</t>
+  </si>
+  <si>
+    <t>And why are you anxious about clothing?</t>
+  </si>
+  <si>
+    <t>To raŋo ma wirembo ri ruk?</t>
+  </si>
+  <si>
+    <t>But if God so clothes the grass of the field, which today is alive and tomorrow is thrown into the oven, will he not much more clothe you, O you of little faith?</t>
+  </si>
+  <si>
+    <t>For the Gentiles seek after all these things, and your heavenly Father knows that you need them all. </t>
+  </si>
+  <si>
+    <t>But seek first the kingdom of God and his righteousness, and all these things will be added to you. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Therefore do not be anxious about tomorrow, for tomorrow will be anxious for itself. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Amomiyo wikiri wirembi ri gima dikin; kole kis ndelo won yawere gi wach mere. </t>
+  </si>
+  <si>
+    <t>To kutho rangi win Ker pa Were kodi tiro ma go yenyo, aka go bino miyo win gikipiny me jye. </t>
+  </si>
+  <si>
+    <t>Kole me a gikipiny ma jokafiri joyenyo hongo jye; aka Baa win mani polo oŋeyo nike wiyenyo gigo jye. </t>
+  </si>
+  <si>
+    <t>Amomiyo wikiri wichaki rembo, ka wiwacho ni, ‘Wanocham aŋo?’ kosa ni ‘Wanomadhi aŋo?’ kosa ni ‘Wanoruki aŋo?’</t>
+  </si>
+  <si>
+    <t>To k'inen meno apaka Were ruko lum, ma konon nitye to yawere mere thwo tiwaŋo i kendo, go koruki win maloyo kenyo, a ji ma yeyo pajo nok me! </t>
+  </si>
+  <si>
+    <t>To awacho ri win kada Solomon, ma chango oŋaŋ moasere, kobedo gi ruk mabeyo paka nyaka achiel kwoŋ thiwi dudi me. </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Neni win thiwi dudi paka jodongo; jokichwer kwok i tich odoko wegi jokitim ruk pajo.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
     </r>
   </si>
 </sst>
@@ -1818,7 +2317,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1834,6 +2333,9 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2130,10 +2632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C173"/>
+  <dimension ref="A1:C227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="B163" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
+      <selection activeCell="B231" sqref="B231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4026,6 +4528,589 @@
       </c>
       <c r="C173" s="5">
         <v>5.48</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="B174" s="6" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="45.75">
+      <c r="A175" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="B175" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="C175" s="5">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="45">
+      <c r="A176" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="B176" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="C176" s="5">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="15.75">
+      <c r="A177" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="B177" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="C177" s="5">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="45.75">
+      <c r="A178" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="B178" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="C178" s="5">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C179" s="5">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="B180" s="6" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="B181" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="C181" s="5">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="30">
+      <c r="A182" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="B182" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="C182" s="5">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="B183" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="C183" s="5">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="30">
+      <c r="A184" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="B184" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="C184" s="5">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="B185" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="C185" s="5">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="45">
+      <c r="A186" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="B186" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="C186" s="5">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="30">
+      <c r="A187" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="B187" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="C187" s="5">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="30">
+      <c r="A188" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="B188" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="C188" s="5">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="30">
+      <c r="A189" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="B189" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="C189" s="5">
+        <v>6.101</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="B190" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="C190" s="5">
+        <v>6.11</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="30">
+      <c r="A191" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="B191" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="C191" s="5">
+        <v>6.12</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="15.75">
+      <c r="A192" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="B192" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="C192" s="5">
+        <v>6.13</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="30">
+      <c r="A193" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="B193" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="C193" s="5">
+        <v>6.13</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="B194" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="C194" s="5">
+        <v>6.13</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="30">
+      <c r="A195" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="B195" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="C195" s="5">
+        <v>6.14</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="30">
+      <c r="A196" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="B196" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="C196" s="5">
+        <v>6.15</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="B197" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="C197" s="5">
+        <v>6.1600999999999999</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="30">
+      <c r="A198" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="B198" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="C198" s="5">
+        <v>6.16</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="30">
+      <c r="A199" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="B199" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="C199" s="5">
+        <v>6.16</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="C200" s="5">
+        <v>6.16</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="45">
+      <c r="A201" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="C201" s="5">
+        <v>6.17</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="C202" s="5">
+        <v>6.18</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C203" s="5">
+        <v>6.1901000000000002</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" ht="45">
+      <c r="A204" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C204" s="5">
+        <v>6.19</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" ht="45">
+      <c r="A205" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C205" s="5">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C206" s="5">
+        <v>6.21</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C208" s="5">
+        <v>6.22</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="45">
+      <c r="A209" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="C209" s="5">
+        <v>6.22</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" ht="30">
+      <c r="A210" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C210" s="5">
+        <v>6.23</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B211" s="2"/>
+      <c r="C211" s="5">
+        <v>6.23</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" ht="45">
+      <c r="A212" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="C212" s="5">
+        <v>6.24</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="C213" s="5">
+        <v>6.24</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" ht="45">
+      <c r="A214" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C214" s="5">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" ht="30">
+      <c r="A215" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C215" s="5">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" ht="45">
+      <c r="A216" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C216" s="5">
+        <v>6.26</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="C217" s="5">
+        <v>6.26</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" ht="45">
+      <c r="A218" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C218" s="5">
+        <v>6.27</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="C219" s="5">
+        <v>6.28</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" ht="30">
+      <c r="A220" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="C220" s="5">
+        <v>6.28</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" ht="30">
+      <c r="A221" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="C221" s="5">
+        <v>6.29</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" ht="45">
+      <c r="A222" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="C222" s="5">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" ht="30.75">
+      <c r="A223" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="C223" s="5">
+        <v>6.31</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" ht="30">
+      <c r="A224" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C224" s="5">
+        <v>6.32</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" ht="30">
+      <c r="A225" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="C225" s="5">
+        <v>6.33</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" ht="30">
+      <c r="A226" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="C226" s="5">
+        <v>6.34</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="C227" s="5">
+        <v>6.35</v>
       </c>
     </row>
   </sheetData>

--- a/Bible - NT.xlsx
+++ b/Bible - NT.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Mathew" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="No translation" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="532">
   <si>
     <t>English</t>
   </si>
@@ -2231,6 +2231,478 @@
       </rPr>
       <t> </t>
     </r>
+  </si>
+  <si>
+    <t>Thumo banja ri jowoti jo</t>
+  </si>
+  <si>
+    <t>For with the judgment you pronounce you will be judged, and with the measure you use it will be measured to you.</t>
+  </si>
+  <si>
+    <t>Do not give dogs what is holy, and do not throw your pearls before pigs, lest they trample them underfoot and turn to attack you.</t>
+  </si>
+  <si>
+    <r>
+      <t>Judge not, that you be not judged.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Raleway"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Iere nedi wacho ri omerin ni, ‘Mondo, weyi akwany woko nyaka yath mondhilo no i waŋin,’ mato iwon bende initye gi thwon kasik i waŋin?</t>
+  </si>
+  <si>
+    <t>Kwoŋbedo ibino thumo ri win banja i yo achiel ma withumo gine banja ri jowoti win, aka ibino tiyo kwoŋ win gi chik ma witiyo gine kwoŋ jowoti win. </t>
+  </si>
+  <si>
+    <t>Amomiyo, raŋo m'iŋiyo nyaka yath mondhilo mani manitye i waŋ omerin, t'ikidew kwoŋ thwon kasik manitye i waŋin won? </t>
+  </si>
+  <si>
+    <r>
+      <t>Wikiri withum banja ri jowoti win, aka bende Were kothum ri win banja.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Raleway"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>In, jarendirok!</t>
+  </si>
+  <si>
+    <t>You hypocrite!</t>
+  </si>
+  <si>
+    <t>First take the log out of your own eye, and then you will see clearly to take the speck out of your brother’s eye. </t>
+  </si>
+  <si>
+    <t>Kutho kwanyi woko thwon kongolo kasik i waŋin, aka nyaka ibino neno maber ŋey inokwany woko yath mondhilo i waŋ omerin.</t>
+  </si>
+  <si>
+    <t>Ikiri imiy gwokere gikipiny maleŋ, jobino wire rin to jokayin ayino; kendo ikiri ibol gee mawelo ri mbiji, jobino nyono anyona ayino</t>
+  </si>
+  <si>
+    <t>Judging others</t>
+  </si>
+  <si>
+    <t>Kwayi, rangi, gudi thigo</t>
+  </si>
+  <si>
+    <r>
+      <t>Kwayi, aka inolim; rangi, aka inonwaŋ; gudi thigo aka ibino yawo rin.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Raleway"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Raleway"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>Kole dhano jye ma kwayo, limo; aka ŋata rango, nwaŋo, aka ŋata gudo thigo, iyawo ri go.</t>
+  </si>
+  <si>
+    <t>Aka Baa win mani polo oloy win didi i miyo joma kwayo go, gikipiny mabeyo!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> How much more will your Father who is in heaven give good things to those who ask him!</t>
+  </si>
+  <si>
+    <t>Even youwho are evil, know how to give good gifts to your children.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kole kada wirecho ameno, wiŋeyo miyo nyithindho mewin gikipiny mabeyo. </t>
+  </si>
+  <si>
+    <t>Kosa di miy go thwol, ka okwayo rech? </t>
+  </si>
+  <si>
+    <t>Or if he asks for a fish, will give him a serpent? </t>
+  </si>
+  <si>
+    <t>Or which one of you, if his son asks him for bread, will give him a stone? </t>
+  </si>
+  <si>
+    <t> Ŋa kwoŋ win bachere ji ka ma di miy wuode tele, ka okwayo mugat? </t>
+  </si>
+  <si>
+    <t>For everyone who asks receives, and the one who seeks finds, and to the one who knocks it will be opened. </t>
+  </si>
+  <si>
+    <r>
+      <t>Ask, and it will be given to you; seek, and you will find; knock, and it will be opened to you.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Raleway"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Ask, seek and knock</t>
+  </si>
+  <si>
+    <t>Timi win ri jowoti win gima wimito jowotim ri win: me a dwoŋ Chik pa Musa kodi fuonji pa jotuchi wach Were.</t>
+  </si>
+  <si>
+    <t>So whatever you wish that others would do to you, do also to them, for this is the Law and the Prophets</t>
+  </si>
+  <si>
+    <t>Waŋkach madiny kodi malach</t>
+  </si>
+  <si>
+    <t>Narrow and Wide gate</t>
+  </si>
+  <si>
+    <r>
+      <t>Donji gi i waŋkach madiny, rupiri waŋkach malach ni gi royo mayot luwo, to tero jo i reyirok, aka joma thoth joluwo royo no.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Raleway"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Waŋkach madiny ni gi royo matek luwo, to tero jo i kwo, aka ji manok ama jonwaŋo royo no.</t>
+  </si>
+  <si>
+    <t>Yath kodi gimanyak kwoŋe</t>
+  </si>
+  <si>
+    <t>For the gate is narrow and the way is hard that leads to life, and those who find it are few.</t>
+  </si>
+  <si>
+    <t>Enter by the narrow gate, for the gate is wide and the way is easy that leads to destruction, and those who enter by it are many.</t>
+  </si>
+  <si>
+    <r>
+      <t>Gwokere win kwoŋ jotuchi wach matwodo, ma jobino bongi win i chal pa rombo gi woko, to iyadyeri mere jobedo arara i chuny gin.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Raleway"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>You will recognize them by their fruits.</t>
+  </si>
+  <si>
+    <t>Ri ameno wibino ŋeyo jo kwoŋ gimanyak wok i tim pajo</t>
+  </si>
+  <si>
+    <t>Kudho oryaŋ bende chiene nyak vini?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Odoko kudho alwi bende chiene nyak nyandere?</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Raleway"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t> Kole yath maber nyak gimaber, aka yath marach bende nyak gimarach. </t>
+  </si>
+  <si>
+    <r>
+      <t>“eware of false prophets, who come to you in sheep’s clothing but inwardly are ravenous wolves.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Raleway"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>So, every healthy tree bears good fruit, but the diseased tree bears bad fruit. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Are grapes gathered from thornbushes?</t>
+  </si>
+  <si>
+    <t>Are figs  gathered from thistles?  </t>
+  </si>
+  <si>
+    <t>Yath maber kinyal nyak gimarach, aka yath marach kinyal nyak gimaber.</t>
+  </si>
+  <si>
+    <t>Yath jye ma kinyak gimaber itoŋo woko tibolo i mach. </t>
+  </si>
+  <si>
+    <t>Amomiyo wibino ŋeyo jotuchi wach matwodo chungo kwoŋ gimanyak ma nenere i tim pajo</t>
+  </si>
+  <si>
+    <t>A healthy tree cannot bear bad fruit, nor can a diseased tree bear good fruit.</t>
+  </si>
+  <si>
+    <t>Every tree that does not bear good fruit is cut down and thrown into the fire.</t>
+  </si>
+  <si>
+    <t>Thus you will recognize them by their fruits.</t>
+  </si>
+  <si>
+    <t>Ki dhano jye ma lwoŋan ni, ‘Ruoth, Ruoth,’ ma bino donjo i Ker ma polo, kende ŋata timo gima Baba mani polo yenyo.</t>
+  </si>
+  <si>
+    <t>Not everyone who says to me, ‘Lord, Lord,’will enter the kingdom of heaven, but the one who does the will of my Father who is in heaven.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I ndelo no, joma thoth jobino wacho ni, ‘Ruoth, Ruoth, kole watucho mikwenda pa Were i nyingin, waryemo woko jwogi i nyingin aka watimo giraura madongo momore i nyingin!’</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Raleway"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Raleway"/>
+      </rPr>
+      <t>On that day many will say to me, ‘Lord, Lord, did we not prophesy in your name, and cast out demons in your name, and do many mighty works in your name?’</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Raleway"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Gikenyo abino wacho ri jo ni, ‘Akuya win, kendo eye win bongan win wijotimi recho me.’</t>
+  </si>
+  <si>
+    <r>
+      <t>And then will I declare to them, ‘I never knew you; depart from me, you workers of lawlessness.’</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Raleway"/>
+      </rPr>
+      <t>  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Everyone then who hears these words of mine and does them will be like a wise man who built his house on the rock.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Raleway"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FF000000"/>
+        <rFont val="Raleway"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>Jogeto aryo</t>
+  </si>
+  <si>
+    <r>
+      <t>Amomiyo dhano jye ma winjo wach paran me aka tiyo gine bino chale gi dhano maryek mogeto ot pere wi tele.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Raleway"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Koth ochwe, mikula omol, aka asur okudho ot no matek. </t>
+  </si>
+  <si>
+    <t>To ot no kopodho, kwoŋbedo oger wi tele.</t>
+  </si>
+  <si>
+    <t>And the rain fell, and the floods came, and the winds blew.</t>
+  </si>
+  <si>
+    <t>And the house did not fall, because it had been founded on the rock. </t>
+  </si>
+  <si>
+    <t>the two builders</t>
+  </si>
+  <si>
+    <t>Jafuonjirok motire</t>
+  </si>
+  <si>
+    <r>
+      <t>To ŋata winjo wach paran me aka kitiy gine, chalo dhano mamiŋ mogero ot pere i kwoyo.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Raleway"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Koth ochwe, mikula omol, asur okudho ot no matek, to podho. </t>
+  </si>
+  <si>
+    <t>Podho no oasere marom kune!”</t>
+  </si>
+  <si>
+    <r>
+      <t>And everyone who hears these words of mine and does not do them will be like a foolish man who built his house on the sand.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Raleway"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FF000000"/>
+        <rFont val="Raleway"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>And the rain fell, and the floods came, and the winds blew and beat against that house, and it fell</t>
+  </si>
+  <si>
+    <t>And great was the fall of it.</t>
+  </si>
+  <si>
+    <r>
+      <t>Munyo Yesu ochowo wacho gime, kweth ji jouro swa kite ma go ofuonjo gine.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Raleway"/>
+      </rPr>
+      <t>  </t>
+    </r>
+  </si>
+  <si>
+    <t>Go onwaŋo kichale kodi jofuonji ma Chik, rupiri go ofuonjo pa ŋata oido ni gi men.</t>
+  </si>
+  <si>
+    <t>for he was teaching them as one who had authority, and not as their scribes.</t>
+  </si>
+  <si>
+    <r>
+      <t>And when Jesus finished these sayings, the crowds were astonished at his teaching,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Raleway"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Men pa Yesu</t>
   </si>
 </sst>
 </file>
@@ -2317,7 +2789,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2336,6 +2808,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2632,10 +3107,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C227"/>
+  <dimension ref="A1:C267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
-      <selection activeCell="B231" sqref="B231"/>
+    <sheetView topLeftCell="A258" workbookViewId="0">
+      <selection activeCell="B267" sqref="B267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5113,6 +5588,437 @@
         <v>6.35</v>
       </c>
     </row>
+    <row r="228" spans="1:3">
+      <c r="A228" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" ht="30.75">
+      <c r="A229" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="C229" s="5">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" ht="45">
+      <c r="A230" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C230" s="5">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" ht="30">
+      <c r="A231" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C231" s="5">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" ht="30">
+      <c r="A232" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C232" s="5">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="C233" s="5">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" ht="30">
+      <c r="A234" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="C234" s="5">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" ht="45">
+      <c r="A235" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="C235" s="5">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="B236" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="C236" s="5">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" ht="30.75">
+      <c r="A237" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="B237" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="C237" s="5">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" ht="30">
+      <c r="A238" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C238" s="5">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" ht="30">
+      <c r="A239" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="C239" s="5">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="C240" s="5">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" ht="30">
+      <c r="A241" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="C241" s="5">
+        <v>7.11</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" ht="30">
+      <c r="A242" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="C242" s="5">
+        <v>7.11</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" ht="30">
+      <c r="A243" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="C243" s="5">
+        <v>7.12</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="B244" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="C244" s="5">
+        <v>7.12</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" ht="45">
+      <c r="A245" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="C245" s="5">
+        <v>7.13</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" ht="30">
+      <c r="A246" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="C246" s="5">
+        <v>7.14</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" s="3" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" ht="30.75">
+      <c r="A248" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="C248" s="5">
+        <v>7.15</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="C249" s="5">
+        <v>7.16</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C250" s="5">
+        <v>7.16</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" ht="15.75">
+      <c r="A251" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="C251" s="5">
+        <v>7.16</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" ht="30">
+      <c r="A252" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="C252" s="5">
+        <v>7.17</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" ht="30">
+      <c r="A253" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="C253" s="5">
+        <v>7.18</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" ht="30">
+      <c r="A254" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="C254" s="5">
+        <v>7.19</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" ht="30">
+      <c r="A255" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="C255" s="5">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" ht="45">
+      <c r="A256" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="C256" s="5">
+        <v>7.21</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" ht="45">
+      <c r="A257" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="B257" s="8" t="s">
+        <v>509</v>
+      </c>
+      <c r="C257" s="5">
+        <v>7.22</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" ht="30.75">
+      <c r="A258" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="C258" s="5">
+        <v>7.23</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="C259" s="5">
+        <v>7.23</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" ht="45.75">
+      <c r="A260" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="C260" s="5">
+        <v>7.24</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" ht="30">
+      <c r="A261" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="C261" s="5">
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" ht="30">
+      <c r="A262" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="C262" s="5">
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" ht="45.75">
+      <c r="A263" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="C263" s="5">
+        <v>7.26</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" ht="30">
+      <c r="A264" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="C264" s="5">
+        <v>7.27</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="C265" s="5">
+        <v>7.27</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" ht="30.75">
+      <c r="A266" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="C266" s="5">
+        <v>7.28</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" ht="30">
+      <c r="A267" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="B267" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="C267" s="5">
+        <v>7.29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5121,12 +6027,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="46" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="45">
+      <c r="A1" s="2" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>531</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Bible - NT.xlsx
+++ b/Bible - NT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Mathew" sheetId="1" r:id="rId1"/>
@@ -3109,8 +3109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C267"/>
   <sheetViews>
-    <sheetView topLeftCell="A258" workbookViewId="0">
-      <selection activeCell="B267" sqref="B267"/>
+    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="A130" sqref="A130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6029,7 +6029,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -6038,7 +6038,7 @@
     <col min="1" max="1" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="45">
+    <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
         <v>520</v>
       </c>

--- a/Bible - NT.xlsx
+++ b/Bible - NT.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="628">
   <si>
     <t>English</t>
   </si>
@@ -2703,6 +2703,349 @@
   </si>
   <si>
     <t>Men pa Yesu</t>
+  </si>
+  <si>
+    <t>Yesu botho jadhowo</t>
+  </si>
+  <si>
+    <r>
+      <t>Munyo Yesu oloro wi got, kweth ji joluwo go.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Raleway"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>When he came down from the mountain, great crowds followed him.</t>
+  </si>
+  <si>
+    <t>And behold, a leper came to him and knelt before him, saying, “Lord, if you will, you can make me clean.”</t>
+  </si>
+  <si>
+    <t>And Jesus said to him, “See that you say nothing to anyone, but go, show yourself to the priest and offer the gift that Moses commanded, for a proof to them.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yesu ochwayo chinge to geyo go munyo wacho ni, “Ayenyo, bothi!” </t>
+  </si>
+  <si>
+    <t>Gikenyo dhowo pere ochango i hongo no won. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">And Jesus stretched out his hand and touched him, saying, “I will; be clean.” </t>
+  </si>
+  <si>
+    <t>And immediately his leprosy was cleansed.</t>
+  </si>
+  <si>
+    <t>To Yesu wacho ri go ni, “Neni! Ikiri iwachi ri nyatoro, to kidhi titir bongi jachwayi ri Were wi alitar, go wokaŋasa in, aka imiy mich ma chowirok ma nyutho dhano jye nike iboth, paka mitere i Or ma Musa ondiko.”</t>
+  </si>
+  <si>
+    <t>Gikenyo jadhowo moro obino bonge, oryewere piny runyime, to wacho ni, “Jadwoŋ ka iyenyo inyalo bothan.” </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jesus  cleanses the leper </t>
+  </si>
+  <si>
+    <t>Munyo Yesu odonjo Kapernaum, jaserikale madwoŋ ma Jaroma oromo gine to kwayo kony ni,“Jadwoŋ, jatich paran ni pecho two nyaŋinya i kanindo, kinyal ay, aka nitye i litho madwoŋ swa.”</t>
+  </si>
+  <si>
+    <t>Yesu owacho ni, “Abino kidho botho go.”</t>
+  </si>
+  <si>
+    <t>Kole abende anitye gi jodongo ma jotelan, aka nitye joserikale ma bende joluwan.</t>
+  </si>
+  <si>
+    <t>Ka awacho ri me ni kadhi, to kadho; ri man ni biye, to bino; aka ka aoro jago paran ni, timi gimanyo, to go timo.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For I too am a man under authority, with soldiers under me. </t>
+  </si>
+  <si>
+    <t>And I say to one, ‘Go,’and he goes, and to another, ‘Come,’and he comes, and to my servant, ‘Do this,’and he does it.</t>
+  </si>
+  <si>
+    <t>Jaserikale odwoko ni, “Be Jadwoŋ, kiripi ran in donjo i ot paran, wachi nyaka wach achiel to jatich paran both.”</t>
+  </si>
+  <si>
+    <t>But the centurion replied, “Lord, I am not worthy to have you come under my roof, but only say the word, and my servant will be healed. ”</t>
+  </si>
+  <si>
+    <t>And he said to him, “I will come and heal him.” </t>
+  </si>
+  <si>
+    <t>Yesu botho jatich pa Jaserikale madwoŋ ma Jaroma</t>
+  </si>
+  <si>
+    <t>Jesus heals the Centurion’s Servant</t>
+  </si>
+  <si>
+    <r>
+      <t>When he entered Capernaum, a centurion came forward to him, appealing to him,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Raleway"/>
+      </rPr>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“Lord, my servant is lying paralyzed at home, suffering terribly.”</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>When Jesus heard this, he marveled and said to those who followed him, “Truly, I tell you, with no one in Israel have I found such faith.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yesu ouro munyo owinjo gime, omiyo owacho ri ji monwaŋo joluwo go ni, “Awacho ri win, fuodi akineno kiti yeyo me i nyatoro jye i Israel.Poyi win gime! </t>
+  </si>
+  <si>
+    <t>Joma thoth jobino wok yu Wokchieŋ kodi yu Podhochieŋ to jobedo dhower i Ker ma polo kodi Ibrayimu, Isaka, kodi Yakobo.</t>
+  </si>
+  <si>
+    <t>To joma oido joripere bedo i Ker ibino bolo jo woko i mudho kama jobino ywak'iye to jomwodo laki gin.</t>
+  </si>
+  <si>
+    <t> And to the centurion Jesus said, “Go; let it be done for you as you have believed.</t>
+  </si>
+  <si>
+    <t>And the servant was healed at that very moment. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">”Aka Yesu owacho ri jaserikale ni, “Doki pecho, paka iyeyo, gima iyenyo wotimere rin.” </t>
+  </si>
+  <si>
+    <t>Aka jatich pa jaserikale oboth sawa no won.</t>
+  </si>
+  <si>
+    <t>But the sons of the kingdom mwill be cast out into outer darkness where they will be weeping and gnashing their teeth.</t>
+  </si>
+  <si>
+    <t>I tell you, many will come from east and west and recline at table with Abraham, Isaac, and Jacob in the kingdom of heaven.</t>
+  </si>
+  <si>
+    <t>Yesu botho ji mathoth</t>
+  </si>
+  <si>
+    <t>Yesu okidho pecho pa Petro, aka kenyo or Petro mobedo min chiege oido ni kanindo kwoŋe oowere.</t>
+  </si>
+  <si>
+    <t>Gikenyo go ogeyo chingi dheno, to two weyo go; aka oay malo to chako rweyo go.</t>
+  </si>
+  <si>
+    <t>And when Jesus entered Peter’s house, he saw his mother-in-law lying sick with a fever.</t>
+  </si>
+  <si>
+    <t>He touched her hand, and the fever left her, and she rose and began to serve him.</t>
+  </si>
+  <si>
+    <t>Jesus heals many people</t>
+  </si>
+  <si>
+    <t>Go otimo ama ma miyo gima jatuchi wach Were Isaya owacho ni, “Go won okwanyo woko nyapo mawan, to tiŋo two mawan,” wotundi i kare.</t>
+  </si>
+  <si>
+    <t>This was to fulfill what was spoken by the prophet Isaiah: “He took our illnesses and bore our diseases.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Munyo piny oyutho, ji jokelo bongi Yesu ji ma jwogi ni kwoŋ jo. </t>
+  </si>
+  <si>
+    <t>Yesu oryemo woko jwogi gi wach pere to botho jotwo jye.</t>
+  </si>
+  <si>
+    <t>That evening they brought to him many who were oppressed by demons.</t>
+  </si>
+  <si>
+    <t>Jesus cast out the spirits with a word and healed all who were sick.</t>
+  </si>
+  <si>
+    <t>Joma di jobedo joma luwo Yesu</t>
+  </si>
+  <si>
+    <t>Munyo Yesu oneno kweth ji jothoko go, owodho or ni jowopori loka man ma wakawaka.</t>
+  </si>
+  <si>
+    <r>
+      <t>Now when Jesus saw a crowd around him, he gave orders to go over to the other side.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Raleway"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Jafuonji ma Chik moro obino bonge to wacho ni, “Jafuonji ayikere kidho kodin kama inochom'iye jye.”</t>
+  </si>
+  <si>
+    <t>Yesu odwoko go ni, “Kibwe jonitye gi kero pajo, aka winyin bende jonitye gi odi gin, to Wuodi Dhano ongoye kodi kama go othen'iye wiye.”</t>
+  </si>
+  <si>
+    <t>Achiel kwoŋ jafuonjirok pere owacho ni, “Jadwoŋ, weyi kutho akidhi ayiki baba.”</t>
+  </si>
+  <si>
+    <t>Yesu odwoko go ni, “Luwan. Weyi jomotho wegi jowoyiki jomotho pajo.”</t>
+  </si>
+  <si>
+    <t>And Jesus said to him, “Follow me, and leave the dead to bury their own dead.” </t>
+  </si>
+  <si>
+    <t> Another of the disciples said to him, “Lord, let me first go and bury my father.” </t>
+  </si>
+  <si>
+    <t>And Jesus said to him, “Foxes have holes, and birds of the air have nests, but the Son of Man has nowhere to lay his head.” </t>
+  </si>
+  <si>
+    <t>And a scribe came up and said to him, “Teacher, I will follow you wherever you go.” </t>
+  </si>
+  <si>
+    <t>Those who will folllow Jesus</t>
+  </si>
+  <si>
+    <t>Yesu kweyo asur</t>
+  </si>
+  <si>
+    <t>Munyo Yesu odonjo i yee, jofuonjirok pere jokadho gi go</t>
+  </si>
+  <si>
+    <t>And when he got into the boat, his disciples followed him.</t>
+  </si>
+  <si>
+    <t>And behold, there arose a great storm on the sea, so that the boat was being swamped by the waves; but he was asleep</t>
+  </si>
+  <si>
+    <t>.Jofuonjirok jokidho bonge to jochiewo go ka jowacho ni, “Bothi wan, Ruoth! Wachiegin tho!”</t>
+  </si>
+  <si>
+    <t>And they went and woke him, saying, “Save us, Lord; we are perishing.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">And he said to them, “Why are you afraid, O you of little faith?” </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yesu odwoko ni, “Wibwok ameno raŋo! Apaka yeyo mewin nok ama!” </t>
+  </si>
+  <si>
+    <t>Then he rose and rebuked the winds and the sea, and there was a great calm.</t>
+  </si>
+  <si>
+    <t>And the men marveled, saying, “What sort of man is this, that even winds and sea obey him?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gikenyo go oay malo to oro asur kodi wakawaka moido tula kwe; aka gimoro jye okwe maber. </t>
+  </si>
+  <si>
+    <t>Dhano jye odhyer to Jowacho ni, “Me kiti dhano manedi? Kir asur kodi kitula pa pi jye winjo go!”</t>
+  </si>
+  <si>
+    <t>Piyo piyo no asur madwoŋ obino i wakawaka momiyo pi matula oido umo woko yee aka Yesu oido nindo</t>
+  </si>
+  <si>
+    <t>Jesus calms the storm</t>
+  </si>
+  <si>
+    <t>Yesu botho ji aryo ma jwogi ni kwoŋ jo</t>
+  </si>
+  <si>
+    <t>Munyo Yesu obino i adech ma Gadara, yu loka man ma wakawaka, ji aryo moido jo ni gi jwogi aka jowok i ŋungu miyik'iye ji, joromo gine.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jono oido joger swa, amomiyo ji bin jolworo luwo royo no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Piyo piyo no jokoko malo ni, “Iyenyo timo aŋo gi wan, Wuodi Were?
+</t>
+  </si>
+  <si>
+    <t>Have you come here to torment us before the time?” </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ibino chando wan ma fuodi ndir motire kotundo?</t>
+  </si>
+  <si>
+    <t>Chiegin kenyo, oido nitye sidwol mbiji ma chiemo.”</t>
+  </si>
+  <si>
+    <t>Gikenyo to jwogi jokwayo Yesu ni, “Ka imito ryemo wan woko, ere dhiri wan i sidwol mbiji no.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yesu owacho ri jo ni, “Kidhi win.” </t>
+  </si>
+  <si>
+    <t>Gikenyo jowok to jodonjo i sidwol mbiji. Sidwol gi bee oloro piny wok wi tendere to jomunyere i pi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> So they came out and went into the pigs, and behold, the whole herd rushed down the steep bank into the sea and drowned in the waters. </t>
+  </si>
+  <si>
+    <t>Ji monwaŋo jokwayo mbiji joringo to jokidho i tindi, to jowacho ri ji ma kenyo gimoro jye motimere ri joma onwaŋo jwogi ni kwoŋ jo.</t>
+  </si>
+  <si>
+    <t>Gino omiyo dhano jye ma tindi owok kidho romo gi Yesu; aka munyo joneno go, jokwayo go ni woeye i adech pajo.</t>
+  </si>
+  <si>
+    <t>And behold, all the city came out to meet Jesus, and when they saw him, they begged him to leave their region.</t>
+  </si>
+  <si>
+    <t>The herdsmen fled, and going into the city they told everything, especially what had happened to the demon-possessed men. </t>
+  </si>
+  <si>
+    <t> And he said to them, “Go.”</t>
+  </si>
+  <si>
+    <t>And the demons begged him, saying, “If you cast us out, send us away into the herd of pigs.” </t>
+  </si>
+  <si>
+    <t>Now a herd of many pigs was feeding at some distance from them. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">And behold, they cried out, “What have you to do with us, O Son of God? </t>
+  </si>
+  <si>
+    <t>And when he came to the other side, to the country of the Gadarenes, two demon-possessed men met him, coming out of the tombs.</t>
+  </si>
+  <si>
+    <t>They were so fierce that no one could pass that way. </t>
+  </si>
+  <si>
+    <t>Jesus heals two demon possessed people</t>
+  </si>
+  <si>
+    <t>A good teacher</t>
+  </si>
+  <si>
+    <t>The power of Jesus</t>
   </si>
 </sst>
 </file>
@@ -3107,10 +3450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C267"/>
+  <dimension ref="A1:C314"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="A130" sqref="A130"/>
+    <sheetView tabSelected="1" topLeftCell="A264" workbookViewId="0">
+      <selection activeCell="A273" sqref="A273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6019,6 +6362,523 @@
         <v>7.29</v>
       </c>
     </row>
+    <row r="268" spans="1:3">
+      <c r="A268" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="C268" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" ht="30">
+      <c r="A269" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="C269" s="5">
+        <v>8.01</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" ht="30">
+      <c r="A270" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="C270" s="5">
+        <v>8.02</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" ht="30">
+      <c r="A271" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="C271" s="5">
+        <v>8.0299999999999994</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="C272" s="5">
+        <v>8.0299999999999994</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" ht="45">
+      <c r="A273" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="C273" s="5">
+        <v>8.0399999999999991</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="C274" s="5">
+        <v>8.0500000000000007</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" ht="45.75">
+      <c r="A275" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="B275" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="C275" s="5">
+        <v>8.0500000000000007</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="C276" s="5">
+        <v>8.07</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" ht="45">
+      <c r="A277" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="C277" s="5">
+        <v>8.08</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" ht="30">
+      <c r="A278" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="C278" s="5">
+        <v>8.09</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" ht="45">
+      <c r="A279" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="C279" s="5">
+        <v>8.09</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" ht="45">
+      <c r="A280" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="C280" s="5">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" ht="45">
+      <c r="A281" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="C281" s="5">
+        <v>8.11</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" ht="45">
+      <c r="A282" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="C282" s="5">
+        <v>8.1199999999999992</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" ht="30">
+      <c r="A283" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="C283" s="5">
+        <v>8.1300000000000008</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="C284" s="5">
+        <v>8.1300000000000008</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="C285" s="5">
+        <v>8.14</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" ht="30">
+      <c r="A286" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="C286" s="5">
+        <v>8.14</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" ht="30">
+      <c r="A287" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="C287" s="5">
+        <v>8.15</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" ht="30">
+      <c r="A288" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="C288" s="5">
+        <v>8.16</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" ht="30">
+      <c r="A289" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="C289" s="5">
+        <v>8.16</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" ht="30">
+      <c r="A290" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="C290" s="5">
+        <v>8.17</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="C291" s="5">
+        <v>8.18</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" ht="30.75">
+      <c r="A292" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="C292" s="5">
+        <v>8.18</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" ht="30">
+      <c r="A293" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="C293" s="5">
+        <v>8.19</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" ht="45">
+      <c r="A294" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="C294" s="5">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" ht="30">
+      <c r="A295" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="B295" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="C295" s="5">
+        <v>8.2100000000000009</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" ht="30">
+      <c r="A296" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="C296" s="5">
+        <v>8.2200000000000006</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="B297" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="C297" s="5">
+        <v>8.23</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" ht="30">
+      <c r="A298" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="C298" s="5">
+        <v>8.23</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" ht="45">
+      <c r="A299" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="C299" s="5">
+        <v>8.24</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" ht="30">
+      <c r="A300" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="C300" s="5">
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" ht="30">
+      <c r="A301" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="C301" s="5">
+        <v>8.26</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" ht="30">
+      <c r="A302" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="C302" s="5">
+        <v>8.26</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" ht="30">
+      <c r="A303" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="C303" s="5">
+        <v>8.27</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
+      <c r="A304" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="C304" s="5">
+        <v>8.2799999999999994</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" ht="45">
+      <c r="A305" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="B305" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="C305" s="5">
+        <v>8.2799999999999994</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3">
+      <c r="A306" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="C306" s="5">
+        <v>8.2799999999999994</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" ht="30">
+      <c r="A307" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="B307" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="C307" s="5">
+        <v>8.2899999999999991</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3">
+      <c r="A308" s="6" t="s">
+        <v>609</v>
+      </c>
+      <c r="B308" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="C308" s="5">
+        <v>8.2899999999999991</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" ht="30">
+      <c r="A309" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="B309" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="C309" s="5">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" ht="30">
+      <c r="A310" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="C310" s="5">
+        <v>8.31</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3">
+      <c r="A311" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="B311" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="C311" s="5">
+        <v>8.32</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" ht="45">
+      <c r="A312" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="B312" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="C312" s="5">
+        <v>8.32</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" ht="45">
+      <c r="A313" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="B313" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="C313" s="5">
+        <v>8.33</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" ht="45">
+      <c r="A314" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="B314" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="C314" s="5">
+        <v>8.34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6027,25 +6887,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="46" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="B1" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>531</v>
+      </c>
+      <c r="B2" t="s">
+        <v>627</v>
       </c>
     </row>
   </sheetData>

--- a/Bible - NT.xlsx
+++ b/Bible - NT.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="745">
   <si>
     <t>English</t>
   </si>
@@ -3046,6 +3046,494 @@
   </si>
   <si>
     <t>The power of Jesus</t>
+  </si>
+  <si>
+    <t>Yesu botho jatwo nyaŋinya</t>
+  </si>
+  <si>
+    <r>
+      <t>Yesu odonjo i yee to chiewere gik yu loka man ma wakawaka, to bino i tindi ma thugin won.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Raleway"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">And behold, some people brought to him a paralytic, lying on a bed. </t>
+  </si>
+  <si>
+    <t>And when Jesus saw their faith, he said to the paralytic, “Take heart, my son; your sins are forgiven.”</t>
+  </si>
+  <si>
+    <t>And behold, some of the scribes said to themselves, “This man is blaspheming.”</t>
+  </si>
+  <si>
+    <t>But Jesus, knowing their thoughts, said, “Why do you think evil in your hearts?</t>
+  </si>
+  <si>
+    <t>For which is easier, to say, ‘Your sins are forgiven,’or to say, ‘Rise and walk’?</t>
+  </si>
+  <si>
+    <t>But that you may know that the Son of Man has authority on earth to forgive sins”</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gikenyo go owacho ri dhano moido two nyaŋinya ni, “Ayi malo, itiŋ kitanda perin, idok pecho.” </t>
+  </si>
+  <si>
+    <t>And he rose and went home.</t>
+  </si>
+  <si>
+    <t>He then said to the paralytic,“Rise, pick up your bed and go home.”</t>
+  </si>
+  <si>
+    <t>When the crowds saw it, they were afraid, and they glorified God, who had given such authority to men.</t>
+  </si>
+  <si>
+    <t> Munyo kweth ji moido ni kenyo joneno gino, jouro swa, to jopako Were momiyo dhano kiti men machal ameno.</t>
+  </si>
+  <si>
+    <t>Jalo oay malo to doki pecho. </t>
+  </si>
+  <si>
+    <t>Kenyo, jomogo jokelo ri go dhano moido two nyaŋinya ma jotiŋo wi kitanda.</t>
+  </si>
+  <si>
+    <t> Amomiyo ere abino nyutho win ni Wuodi Dhano ni gi men i piny ka ma chwako gimarecho.”</t>
+  </si>
+  <si>
+    <t>Mene mayot, wacho ni, ‘Gimarecho perin ochwak rin,’ kosa wacho ni, ‘Ayi malo iwothi?’ </t>
+  </si>
+  <si>
+    <t>Yesu oŋeyo gima oido joparo to wacho ni, “Raŋo ma wiparo gikipiny marecho ameno? </t>
+  </si>
+  <si>
+    <t>Gikenyo jofuonji ma Chik wegi jowacho kendigin ni, “Ŋat me kole luwo marach kwoŋ Were!” </t>
+  </si>
+  <si>
+    <t>Munyo Yesu oneno kiti yeyo pa jono, owacho ri ŋata two nyaŋinya ni, “Ikiri irembi, wuodan; gimarecho perin ochwak rin.” </t>
+  </si>
+  <si>
+    <t>Jesus heals a paralytic</t>
+  </si>
+  <si>
+    <t>Jesus got into a boat and  crossed over and came to his own city.</t>
+  </si>
+  <si>
+    <t>Yesu lwoŋo Mathayo</t>
+  </si>
+  <si>
+    <t>Yesu owacho ri go ni, “Luwan.”</t>
+  </si>
+  <si>
+    <t>Yesu oeye kenyo, aka munyo wotho, oneno jachoki misolo ma nyinge Mathayo obedo piny kama go oido tiyo iye.</t>
+  </si>
+  <si>
+    <t>Mathayo oay malo to luwo go.</t>
+  </si>
+  <si>
+    <t>Matthew rose and followed him.</t>
+  </si>
+  <si>
+    <t>As Jesus passed on from there, he saw a man called Matthew sitting at the tax booth.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jesus said to him, “Follow me.” </t>
+  </si>
+  <si>
+    <t>And as Jesus reclined at table in the house, behold, many tax collectors and sinners came and were reclining with Jesus and his disciples.</t>
+  </si>
+  <si>
+    <t>And when the Pharisees saw this, they said to his disciples, “Why does your teacher eat with tax collectors and sinners?”</t>
+  </si>
+  <si>
+    <t>Go and learn what this means, ‘I desire mercy, and not sacrifice.’</t>
+  </si>
+  <si>
+    <t>For I came not to call the righteous, but sinners.</t>
+  </si>
+  <si>
+    <t>Munyo Jofarisayo mogo joneno gime, jowacho ri jofuonjirok pere ni, “Raŋo ma jafuonji mewin chiemo gi jochoki misolo kodi joma recho?” </t>
+  </si>
+  <si>
+    <t>Kole akibino lwoŋo ji motire, to joma recho ayino.</t>
+  </si>
+  <si>
+    <t>Kidhi win winiaŋ atoŋa momiyo ondik ni, ‘Ayenyo wor ayino, ma kiweno rachow ma lee.’</t>
+  </si>
+  <si>
+    <t>Yesu owinjo jo to wacho ni, “Jomolama ama jokiyeny jamilerwa, to joma two ayino ama joyenyo. ”</t>
+  </si>
+  <si>
+    <t>When Jesus heard it, he said, “Those who are well have no need of a physician, but those who are sick.</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Munyo Yesu oido chiemo modyechieŋ i ot pa Mathayo, jochoki misolo mathoth kodi joma recho jobino to jobedo gi Yesu kodi jofuonjirok pere dhower.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Jesus calls Matthew</t>
+  </si>
+  <si>
+    <t>Penji kwoŋ riyo kech</t>
+  </si>
+  <si>
+    <t>Then the disciples of John came to him, saying, “Why do we and the Pharisees fast, but your disciples do not fast?”</t>
+  </si>
+  <si>
+    <r>
+      <t>Gikenyo joma luwo Yohana Jakibatisa jobino bongi Yesu gi penji ni, “Raŋo wan kodi Jofarisayo wariyo kech noknok, to jofuonjirok perin jokiriy kada dichiel?”</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Raleway"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>The days will come when the bridegroom is taken away from them, and then they will fast.</t>
+  </si>
+  <si>
+    <t>To ndir bino tundo ma ibino kwany'iye woko jamweha bongi jo nyaka to joriyo kech.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kinyalere! </t>
+  </si>
+  <si>
+    <t>Impossible!</t>
+  </si>
+  <si>
+    <r>
+      <t>No one puts a piece of unshrunk cloth on an old garment, for the patch tears away from the garment, and a worse tear is made.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Raleway"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Odoko ongoye nyatoro ma konjo medho vini manyien i migowa pyendere machon.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ka otimo ameno, pyendere lemwoch woko, to vini oy woko, to pyendere bende nyiekere. </t>
+  </si>
+  <si>
+    <t>Kuchiel, ripere vini manyien wokonji i migowa pyendere manyien, ŋey nyaka gigo jaryo no jye bino kurere maber.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If it is, the skins burst and the wine is spilled and the skins are destroyed. </t>
+  </si>
+  <si>
+    <t>But new wine is put into fresh wineskins, and so both are preserved.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neither is new wine put into old wineskins. </t>
+  </si>
+  <si>
+    <r>
+      <t>Ongoye nyatoro ma kwoyo kot moti gi kiremo manyien, rupiri kiremo no leywayo kot to kamoyech medere bedo madwoŋ ayino.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>  </t>
+    </r>
+  </si>
+  <si>
+    <t>Question on fasting</t>
+  </si>
+  <si>
+    <t>Yesu odwoko jo ni, “Chiene wendo ma kalima ma nywomirok bende jobedo gi rem ma fuodi jamweha nitye gi jo?”</t>
+  </si>
+  <si>
+    <t> And Jesus said to them, “Can the wedding guests mourn as long as the bridegroom is with them?”</t>
+  </si>
+  <si>
+    <t>Nyar jaserikale madwoŋ kodi dhako ma two remo joboth</t>
+  </si>
+  <si>
+    <r>
+      <t>While he was saying these things to them, behold, a ruler came in and knelt before him, saying, “My daughter has just died, but come and lay your hand on her, and she will live.”</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Raleway"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Munyo Yesu oido fuodi wacho ri jo gime, jaserikale madwoŋ ma Jayudaya obino bonge, to ryewo chonge piny runyime ka wacho ni, “Nyaran nyaka owok tho won; to biye kethi chingin kwoŋe, aka go bino kwo.”</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Raleway"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>And Jesus rose and followed him, with his disciples.</t>
+  </si>
+  <si>
+    <t>Gikenyo Yesu oay malo oluwo go, kanyachiel gi jofuonjirok pere.</t>
+  </si>
+  <si>
+    <t>I hongo no won to dheno bedo maber.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> And instantly the woman was made well. </t>
+  </si>
+  <si>
+    <r>
+      <t>Dhako moro, moido remo madit oy kwoŋe oro apar g'aryo gipi obino yu ŋey Yesu to geyo dhoki nanga pere.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Dheno owacho gi i chunye ni, “Bedi ayanja agey kada nyaka nanga pere won, d'abedo maber.” </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yesu owire to neno go to wacho ni, “Ikiri irembi, nyaran! Yeyo perin otyeko bothin.” </t>
+  </si>
+  <si>
+    <t>for she said to herself, “If I only touch his garment, I will be made well.”</t>
+  </si>
+  <si>
+    <t> Jesus turned, and seeing her he said, “Take heart, daughter; your faith has made you well.”</t>
+  </si>
+  <si>
+    <t>And behold, a woman who had suffered from a discharge of blood for twelve years came up behind him and touched the fringe of his garment.</t>
+  </si>
+  <si>
+    <t>Wach no olak i adech ma piny no gipi.</t>
+  </si>
+  <si>
+    <t>Aka munyo otyek wodho ji jye woko, Yesu odonjo i ot to mako chingi nyathi manyako no to nyalo ay malo. </t>
+  </si>
+  <si>
+    <t>And they laughed at him. </t>
+  </si>
+  <si>
+    <t>To jono jonyiero go. </t>
+  </si>
+  <si>
+    <t>And the report of this went through all that district.</t>
+  </si>
+  <si>
+    <t>But when the crowd had been put outside, he went in and took her by the hand, and the girl arose. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">And when Jesus came to the ruler’s house </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gikenyo Yesu okidho i ot pa jaserikale madwoŋ. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aka munyo oneno jokudhi madundo, kodi kweth ji moido joucho, owacho ni, “Ngoye win ka wijojye; nyathi ma nyako no kotho, go nindo ayino!” </t>
+  </si>
+  <si>
+    <t xml:space="preserve">and saw the flute players and the crowd making a commotion, he said, “Go away, for the girl is not dead but sleeping.” </t>
+  </si>
+  <si>
+    <t>Daughter of a ruler and the woman with bleeding problem</t>
+  </si>
+  <si>
+    <t>Yesu botho ji aryo ma waŋ gin otho</t>
+  </si>
+  <si>
+    <t>Jesus heals two blind people</t>
+  </si>
+  <si>
+    <r>
+      <t>And as Jesus passed on from there, two blind men followed him, crying aloud, “Have mercy on us, Son of David.”</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Raleway"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>Yesu oeye kenyo, aka munyo kadho, ji aryo ma waŋ gin otho jochako luwo go munyo jokoko ni, “Timi ri wan wor, Wuodi pa Daudi!”</t>
+  </si>
+  <si>
+    <t>They said to him, “Yes, Lord.” </t>
+  </si>
+  <si>
+    <t>And Jesus sternly warned them, “See that no one knows about it.” </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Munyo Yesu odonjo i ot, joma waŋ gin otho no jobino bonge to go penjo jo ni, “Wiyeyo ni anyalo timo gino?” </t>
+  </si>
+  <si>
+    <t>To jodwoko ni, “Ey jadwoŋ.”</t>
+  </si>
+  <si>
+    <t>Gikenyo go ogeyo waŋ jo aka owacho ni, “Ere, wobedi ameno chungo kwoŋ yeyo mewin!”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waŋ jono ochako neno. </t>
+  </si>
+  <si>
+    <t>To Yesu chiko jo teltel ni, “Wikiri wiwachi ri nyatoro.”</t>
+  </si>
+  <si>
+    <t>To joeye kenyo munyo jonyayo wach kwoŋ Yesu i adech jye ma piny no.</t>
+  </si>
+  <si>
+    <t>But they went away and spread his fame through all that district</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Their eyes were opened. </t>
+  </si>
+  <si>
+    <t>Then he touched their eyes, saying, “According to your faith be it done to you.” </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> When he entered the house, the blind men came to him, and Jesus said to them, “Do you believe that I am able to do this?” </t>
+  </si>
+  <si>
+    <t>Yesu botho obadha</t>
+  </si>
+  <si>
+    <r>
+      <t>Munyo ji oido jokadho, jomogo jokelo ri Yesu obadha ma jwogi oido ni kwoŋe.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Raleway"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>As they were going away, behold, a demon-oppressed man who was mute was brought to him.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">And when the demon had been cast out, the mute man spoke. </t>
+  </si>
+  <si>
+    <t>And the crowds marveled, saying, “Never was anything like this seen in Israel.”</t>
+  </si>
+  <si>
+    <t>To Jofarisayo jowacho ni, “Ruodhi jwogi ama miyo go men ma ryemo woko jo.”</t>
+  </si>
+  <si>
+    <t>Tekin otyek ryemo woko jwogi no, ŋato ochako luwo</t>
+  </si>
+  <si>
+    <t>To dhano jye dhyer  jowacho ni, “Fuodi wakineno gima chalo ama i Israel!” </t>
+  </si>
+  <si>
+    <r>
+      <t>But the Pharisees said, “He casts out demons by the prince of demons.”</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Raleway"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Jesus heals a mute man</t>
+  </si>
+  <si>
+    <t>Yesu timo wor gi ji</t>
+  </si>
+  <si>
+    <t>Gikenyo Yesu okidho i tindi jye kodi loka jye.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">And Jesus went throughout all the cities and villages, </t>
+  </si>
+  <si>
+    <t>He was teaching in their synagogues and proclaiming the gospel of the kingdom and healing every disease and every affliction.</t>
+  </si>
+  <si>
+    <t>When he saw the crowds, he had compassion for them, because they were harassed and helpless, like sheep without a shepherd.</t>
+  </si>
+  <si>
+    <t>Then he said to his disciples, “The harvest is plentiful, but the laborers are few;therefore pray earnestly to the Lord of the harvest to send out laborers into his harvest.”</t>
+  </si>
+  <si>
+    <t>Ri ameno go owacho ri jofuonjirok pere ni, “Kecho opikere, to jotich ama nok; amomiyo kwayi win Ruoth ma won kecho wodhiri jotich jowokechi ri go.”</t>
+  </si>
+  <si>
+    <t>Munyo go oneno kweth ji, wor opoŋ i chunye ri jo, rupiri oido jonitye i rembo aka kony ongoye pa roombo ma bu jakwath. </t>
+  </si>
+  <si>
+    <t>Go ofuonjo i kalamo pa Joyudaya munyo tito Wach Maber ma Ker, aka obotho ji kwoŋ kiti two kodi ramirok jye. </t>
   </si>
 </sst>
 </file>
@@ -3106,7 +3594,7 @@
       <name val="Raleway"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3116,6 +3604,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3132,7 +3626,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3156,6 +3650,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3450,10 +3951,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C314"/>
+  <dimension ref="A1:C372"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A264" workbookViewId="0">
-      <selection activeCell="A273" sqref="A273"/>
+    <sheetView tabSelected="1" topLeftCell="A366" workbookViewId="0">
+      <selection activeCell="A372" sqref="A372"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6879,6 +7380,638 @@
         <v>8.34</v>
       </c>
     </row>
+    <row r="315" spans="1:3">
+      <c r="A315" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="B315" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="C315" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" ht="30">
+      <c r="A316" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="C316" s="5">
+        <v>9.01</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" ht="30">
+      <c r="A317" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="B317" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="C317" s="5">
+        <v>9.02</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" ht="30">
+      <c r="A318" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="B318" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="C318" s="5">
+        <v>9.02</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" ht="30">
+      <c r="A319" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="B319" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="C319" s="5">
+        <v>9.0299999999999994</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" ht="30">
+      <c r="A320" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="C320" s="5">
+        <v>9.0399999999999991</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" ht="30">
+      <c r="A321" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="C321" s="5">
+        <v>9.0500000000000007</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" ht="30">
+      <c r="A322" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="B322" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="C322" s="5">
+        <v>9.06</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" ht="30">
+      <c r="A323" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="C323" s="5">
+        <v>9.07</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3">
+      <c r="A324" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="B324" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="C324" s="5">
+        <v>9.07</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" ht="30">
+      <c r="A325" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="B325" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="C325" s="5">
+        <v>9.08</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3">
+      <c r="A326" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="B326" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="C326" s="5">
+        <v>9.09</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" ht="30">
+      <c r="A327" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="B327" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="C327" s="5">
+        <v>9.09</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3">
+      <c r="A328" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="B328" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="C328" s="5">
+        <v>9.09</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3">
+      <c r="A329" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="B329" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="C329" s="5">
+        <v>9.09</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" ht="45">
+      <c r="A330" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="B330" s="6" t="s">
+        <v>657</v>
+      </c>
+      <c r="C330" s="5">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" ht="45">
+      <c r="A331" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="B331" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="C331" s="5">
+        <v>9.11</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" ht="30">
+      <c r="A332" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="B332" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="C332" s="5">
+        <v>9.1199999999999992</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" ht="30">
+      <c r="A333" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="B333" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="C333" s="5">
+        <v>9.1300000000000008</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
+      <c r="A334" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="B334" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="C334" s="5">
+        <v>9.1300000000000008</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3">
+      <c r="A335" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="B335" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="C335" s="5">
+        <v>9.14</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" ht="45.75">
+      <c r="A336" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="B336" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="C336" s="5">
+        <v>9.14</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" ht="30">
+      <c r="A337" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="B337" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="C337" s="5">
+        <v>9.15</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3">
+      <c r="A338" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="B338" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="C338" s="5">
+        <v>9.15</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" ht="30">
+      <c r="A339" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="B339" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="C339" s="5">
+        <v>9.15</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" ht="45.75">
+      <c r="A340" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="B340" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="C340" s="5">
+        <v>9.16</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" ht="30">
+      <c r="A341" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="B341" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="C341" s="5">
+        <v>9.17</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" ht="30">
+      <c r="A342" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="B342" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="C342" s="5">
+        <v>9.17</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" ht="30">
+      <c r="A343" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="B343" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="C343" s="5">
+        <v>9.17</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" ht="30">
+      <c r="A344" s="7" t="s">
+        <v>686</v>
+      </c>
+      <c r="B344" s="6" t="s">
+        <v>709</v>
+      </c>
+      <c r="C344" s="5">
+        <v>9.18</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" ht="60.75">
+      <c r="A345" s="6" t="s">
+        <v>688</v>
+      </c>
+      <c r="B345" s="7" t="s">
+        <v>687</v>
+      </c>
+      <c r="C345" s="5">
+        <v>9.18</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3">
+      <c r="A346" s="7" t="s">
+        <v>690</v>
+      </c>
+      <c r="B346" s="7" t="s">
+        <v>689</v>
+      </c>
+      <c r="C346" s="5">
+        <v>9.19</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" ht="45">
+      <c r="A347" s="9" t="s">
+        <v>693</v>
+      </c>
+      <c r="B347" s="6" t="s">
+        <v>698</v>
+      </c>
+      <c r="C347" s="5">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" ht="30">
+      <c r="A348" s="6" t="s">
+        <v>694</v>
+      </c>
+      <c r="B348" s="6" t="s">
+        <v>696</v>
+      </c>
+      <c r="C348" s="5">
+        <v>9.2100000000000009</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" ht="30">
+      <c r="A349" s="6" t="s">
+        <v>695</v>
+      </c>
+      <c r="B349" s="6" t="s">
+        <v>697</v>
+      </c>
+      <c r="C349" s="5">
+        <v>9.2200000000000006</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3">
+      <c r="A350" s="7" t="s">
+        <v>691</v>
+      </c>
+      <c r="B350" s="6" t="s">
+        <v>692</v>
+      </c>
+      <c r="C350" s="5">
+        <v>9.2200000000000006</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3">
+      <c r="A351" s="9" t="s">
+        <v>706</v>
+      </c>
+      <c r="B351" s="6" t="s">
+        <v>705</v>
+      </c>
+      <c r="C351" s="5">
+        <v>9.23</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" ht="45">
+      <c r="A352" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="B352" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="C352" s="5">
+        <v>9.23</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3">
+      <c r="A353" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="B353" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="C353" s="5">
+        <v>9.24</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" ht="30">
+      <c r="A354" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="B354" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="C354" s="5">
+        <v>9.25</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3">
+      <c r="A355" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="B355" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="C355" s="5">
+        <v>9.26</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3">
+      <c r="A356" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="B356" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="C356" s="5">
+        <v>9.27</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" ht="45">
+      <c r="A357" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="B357" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="C357" s="5">
+        <v>9.27</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" ht="45">
+      <c r="A358" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="B358" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="C358" s="5">
+        <v>9.2799999999999994</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3">
+      <c r="A359" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="B359" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="C359" s="5">
+        <v>9.2799999999999994</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" ht="30">
+      <c r="A360" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="B360" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="C360" s="5">
+        <v>9.2899999999999991</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3">
+      <c r="A361" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="B361" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="C361" s="5">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" ht="30">
+      <c r="A362" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="B362" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="C362" s="5">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" ht="30">
+      <c r="A363" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="B363" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="C363" s="5">
+        <v>9.31</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3">
+      <c r="A364" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="B364" s="2" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" ht="30.75">
+      <c r="A365" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="B365" s="2" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" ht="30">
+      <c r="A366" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="B366" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="C366" s="5">
+        <v>9.33</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" ht="30">
+      <c r="A367" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="B367" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="C367" s="5">
+        <v>9.33</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" ht="30.75">
+      <c r="A368" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="B368" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="C368" s="5">
+        <v>9.34</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3">
+      <c r="A369" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="B369" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="C369" s="5">
+        <v>9.35</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" ht="45">
+      <c r="A370" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="B370" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="C370" s="5">
+        <v>9.35</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" ht="45">
+      <c r="A371" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="B371" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="C371" s="5">
+        <v>9.36</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" ht="45">
+      <c r="A372" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="B372" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="C372" s="5">
+        <v>9.3699999999999992</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6887,10 +8020,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6899,20 +8032,25 @@
     <col min="2" max="2" width="35.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" s="11" customFormat="1">
+      <c r="A1" s="10" t="s">
         <v>520</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="11" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" s="11" customFormat="1">
+      <c r="A2" s="11" t="s">
         <v>531</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="11" t="s">
         <v>627</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>736</v>
       </c>
     </row>
   </sheetData>

--- a/Bible - NT.xlsx
+++ b/Bible - NT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Mathew" sheetId="1" r:id="rId1"/>
@@ -3953,8 +3953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C372"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A366" workbookViewId="0">
-      <selection activeCell="A372" sqref="A372"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A364" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8022,8 +8022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8055,6 +8055,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
